--- a/fuentes/canastas_serie.xlsx
+++ b/fuentes/canastas_serie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5c500d34bb436f93/Otros/pobreza/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josed\Documents\Repositorios_git\pobreza_arg\fuentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{DDC4F36C-32F3-4332-AE30-09E1A2580E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{159826E7-2B06-4A80-8220-ED3914253766}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6BEEE1-0153-4A9F-B0AE-61763B1FAF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="49">
   <si>
     <t>REGION</t>
   </si>
@@ -179,6 +179,9 @@
   <si>
     <t>2024.2</t>
   </si>
+  <si>
+    <t>2024.3</t>
+  </si>
 </sst>
 </file>
 
@@ -205,12 +208,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -226,13 +235,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,20 +559,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F199"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="J197" sqref="J197"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -601,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -621,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -641,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -661,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -681,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -701,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -721,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -741,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -761,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -781,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -801,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -821,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -841,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -861,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -881,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -901,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -921,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -941,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -961,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -981,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1001,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1021,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1041,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1081,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1101,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1139,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1157,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1175,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1193,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1211,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1219,7 +1230,7 @@
         <v>47</v>
       </c>
       <c r="C34">
-        <v>124416.52333333333</v>
+        <v>124416.523333333</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="3">
@@ -1229,3249 +1240,3369 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35">
-        <v>1372.3499999999997</v>
-      </c>
-      <c r="D35">
-        <v>2.2633356450273592</v>
-      </c>
-      <c r="E35">
-        <v>3106.0886724532957</v>
-      </c>
-      <c r="F35">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="6">
+        <f>C34*1.088</f>
+        <v>135365.1773866663</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6">
+        <f>E34*1.098</f>
+        <v>302356.01478000003</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36">
-        <v>1472.08</v>
+        <v>1372.3499999999997</v>
       </c>
       <c r="D36">
-        <v>2.2366671933143478</v>
+        <v>2.2633356450273592</v>
       </c>
       <c r="E36">
-        <v>3292.5530419341849</v>
+        <v>3106.0886724532957</v>
       </c>
       <c r="F36">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37">
-        <v>1525.4499999999998</v>
+        <v>1472.08</v>
       </c>
       <c r="D37">
-        <v>2.236667264128847</v>
+        <v>2.2366671933143478</v>
       </c>
       <c r="E37">
-        <v>3411.924078065349</v>
+        <v>3292.5530419341849</v>
       </c>
       <c r="F37">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38">
-        <v>1578.5933333333332</v>
+        <v>1525.4499999999998</v>
       </c>
       <c r="D38">
-        <v>2.2500012035711592</v>
+        <v>2.236667264128847</v>
       </c>
       <c r="E38">
-        <v>3551.8368999494078</v>
+        <v>3411.924078065349</v>
       </c>
       <c r="F38">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39">
-        <v>1680.6133333333335</v>
+        <v>1578.5933333333332</v>
       </c>
       <c r="D39">
-        <v>2.2733346106482792</v>
+        <v>2.2500012035711592</v>
       </c>
       <c r="E39">
-        <v>3820.5964577836403</v>
+        <v>3551.8368999494078</v>
       </c>
       <c r="F39">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40">
-        <v>1752.61</v>
+        <v>1680.6133333333335</v>
       </c>
       <c r="D40">
-        <v>2.2700006195967686</v>
+        <v>2.2733346106482792</v>
       </c>
       <c r="E40">
-        <v>3978.4257859114923</v>
+        <v>3820.5964577836403</v>
       </c>
       <c r="F40">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41">
-        <v>1845.2433333333331</v>
+        <v>1752.61</v>
       </c>
       <c r="D41">
-        <v>2.2899996432067202</v>
+        <v>2.2700006195967686</v>
       </c>
       <c r="E41">
-        <v>4225.6065749629115</v>
+        <v>3978.4257859114923</v>
       </c>
       <c r="F41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42">
-        <v>1960.3633333333335</v>
+        <v>1845.2433333333331</v>
       </c>
       <c r="D42">
-        <v>2.3300127274819515</v>
+        <v>2.2899996432067202</v>
       </c>
       <c r="E42">
-        <v>4567.6715171556107</v>
+        <v>4225.6065749629115</v>
       </c>
       <c r="F42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C43">
-        <v>2096.0766666666664</v>
+        <v>1960.3633333333335</v>
       </c>
       <c r="D43">
-        <v>2.3433357555579497</v>
+        <v>2.3300127274819515</v>
       </c>
       <c r="E43">
-        <v>4911.8113993907209</v>
+        <v>4567.6715171556107</v>
       </c>
       <c r="F43">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44">
-        <v>2403.7533333333336</v>
+        <v>2096.0766666666664</v>
       </c>
       <c r="D44">
-        <v>2.3100009052004853</v>
+        <v>2.3433357555579497</v>
       </c>
       <c r="E44">
-        <v>5552.6723758786848</v>
+        <v>4911.8113993907209</v>
       </c>
       <c r="F44">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45">
-        <v>2812.15</v>
+        <v>2403.7533333333336</v>
       </c>
       <c r="D45">
-        <v>2.3133337034292469</v>
+        <v>2.3100009052004853</v>
       </c>
       <c r="E45">
-        <v>6505.4413740985574</v>
+        <v>5552.6723758786848</v>
       </c>
       <c r="F45">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46">
-        <v>3112.0833333333335</v>
+        <v>2812.15</v>
       </c>
       <c r="D46">
-        <v>2.3066670887433833</v>
+        <v>2.3133337034292469</v>
       </c>
       <c r="E46">
-        <v>7178.5402024268042</v>
+        <v>6505.4413740985574</v>
       </c>
       <c r="F46">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C47">
-        <v>3396.72</v>
+        <v>3112.0833333333335</v>
       </c>
       <c r="D47">
-        <v>2.3233328792898704</v>
+        <v>2.3066670887433833</v>
       </c>
       <c r="E47">
-        <v>7891.7112577414882</v>
+        <v>7178.5402024268042</v>
       </c>
       <c r="F47">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48">
-        <v>3751.7566666666662</v>
+        <v>3396.72</v>
       </c>
       <c r="D48">
-        <v>2.3166665327081546</v>
+        <v>2.3233328792898704</v>
       </c>
       <c r="E48">
-        <v>8691.5691085313701</v>
+        <v>7891.7112577414882</v>
       </c>
       <c r="F48">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C49">
-        <v>4233.9533333333338</v>
+        <v>3751.7566666666662</v>
       </c>
       <c r="D49">
-        <v>2.3199999353936422</v>
+        <v>2.3166665327081546</v>
       </c>
       <c r="E49">
-        <v>9822.7714597930299</v>
+        <v>8691.5691085313701</v>
       </c>
       <c r="F49">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50">
-        <v>4742.0566666666664</v>
+        <v>4233.9533333333338</v>
       </c>
       <c r="D50">
-        <v>2.2566668578673528</v>
+        <v>2.3199999353936422</v>
       </c>
       <c r="E50">
-        <v>10701.242117795598</v>
+        <v>9822.7714597930299</v>
       </c>
       <c r="F50">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51">
-        <v>5042.72</v>
+        <v>4742.0566666666664</v>
       </c>
       <c r="D51">
-        <v>2.2333340196301212</v>
+        <v>2.2566668578673528</v>
       </c>
       <c r="E51">
-        <v>11262.078127469205</v>
+        <v>10701.242117795598</v>
       </c>
       <c r="F51">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52">
-        <v>5298.0018666666665</v>
+        <v>5042.72</v>
       </c>
       <c r="D52">
-        <v>2.2566669533266457</v>
+        <v>2.2333340196301212</v>
       </c>
       <c r="E52">
-        <v>11955.825731169549</v>
+        <v>11262.078127469205</v>
       </c>
       <c r="F52">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53">
-        <v>6089.1746666666668</v>
+        <v>5298.0018666666665</v>
       </c>
       <c r="D53">
-        <v>2.2266662188571695</v>
+        <v>2.2566669533266457</v>
       </c>
       <c r="E53">
-        <v>13558.559530987533</v>
+        <v>11955.825731169549</v>
       </c>
       <c r="F53">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54">
-        <v>6868.6513934205241</v>
+        <v>6089.1746666666668</v>
       </c>
       <c r="D54">
-        <v>2.1966670798091212</v>
+        <v>2.2266662188571695</v>
       </c>
       <c r="E54">
-        <v>15088.140398611915</v>
+        <v>13558.559530987533</v>
       </c>
       <c r="F54">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55">
-        <v>7672.1978666666664</v>
+        <v>6868.6513934205241</v>
       </c>
       <c r="D55">
-        <v>2.179999488069658</v>
+        <v>2.1966670798091212</v>
       </c>
       <c r="E55">
-        <v>16725.387421702457</v>
+        <v>15088.140398611915</v>
       </c>
       <c r="F55">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56">
-        <v>8257.2933333333331</v>
+        <v>7672.1978666666664</v>
       </c>
       <c r="D56">
-        <v>2.1700002693219873</v>
+        <v>2.179999488069658</v>
       </c>
       <c r="E56">
-        <v>17918.328757203984</v>
+        <v>16725.387421702457</v>
       </c>
       <c r="F56">
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C57">
-        <v>8985.0766666666659</v>
+        <v>8257.2933333333331</v>
       </c>
       <c r="D57">
-        <v>2.1566662826218894</v>
+        <v>2.1700002693219873</v>
       </c>
       <c r="E57">
-        <v>19377.811893772676</v>
+        <v>17918.328757203984</v>
       </c>
       <c r="F57">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="1">
-        <v>10516.026666666667</v>
-      </c>
-      <c r="D58" s="4">
-        <v>2.0933333333333333</v>
-      </c>
-      <c r="E58" s="2">
-        <v>21999.436666666665</v>
+        <v>34</v>
+      </c>
+      <c r="C58">
+        <v>8985.0766666666659</v>
+      </c>
+      <c r="D58">
+        <v>2.1566662826218894</v>
+      </c>
+      <c r="E58">
+        <v>19377.811893772676</v>
       </c>
       <c r="F58">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="2">
-        <v>12536.269999999999</v>
+        <v>35</v>
+      </c>
+      <c r="C59" s="1">
+        <v>10516.026666666667</v>
       </c>
       <c r="D59" s="4">
-        <v>2.08</v>
+        <v>2.0933333333333333</v>
       </c>
       <c r="E59" s="2">
-        <v>26075.443333333333</v>
+        <v>21999.436666666665</v>
       </c>
       <c r="F59">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C60" s="2">
-        <v>14904.56</v>
+        <v>12536.269999999999</v>
       </c>
       <c r="D60" s="4">
-        <v>2.0933333333333333</v>
+        <v>2.08</v>
       </c>
       <c r="E60" s="2">
-        <v>31200.056666666667</v>
-      </c>
-      <c r="F60" s="4">
+        <v>26075.443333333333</v>
+      </c>
+      <c r="F60">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" s="2">
-        <v>18075.506666666668</v>
+        <v>14904.56</v>
       </c>
       <c r="D61" s="4">
-        <v>2.0999999999999996</v>
+        <v>2.0933333333333333</v>
       </c>
       <c r="E61" s="2">
-        <v>37964.420000000006</v>
+        <v>31200.056666666667</v>
       </c>
       <c r="F61" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62" s="2">
-        <v>22471.69</v>
-      </c>
-      <c r="D62" s="4"/>
+        <v>18075.506666666668</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2.0999999999999996</v>
+      </c>
       <c r="E62" s="2">
-        <v>46158.41</v>
+        <v>37964.420000000006</v>
       </c>
       <c r="F62" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2">
-        <v>24559.193333333333</v>
+        <v>22471.69</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="2">
-        <v>57040.05000000001</v>
+        <v>46158.41</v>
       </c>
       <c r="F63" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64">
-        <v>36662.879999999997</v>
+        <v>40</v>
+      </c>
+      <c r="C64" s="2">
+        <v>24559.193333333333</v>
       </c>
       <c r="D64" s="4"/>
-      <c r="E64">
-        <v>74303.67</v>
+      <c r="E64" s="2">
+        <v>57040.05000000001</v>
       </c>
       <c r="F64" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C65">
-        <v>54953.503333333334</v>
+        <v>36662.879999999997</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65">
-        <v>107236.54666666668</v>
+        <v>74303.67</v>
       </c>
       <c r="F65" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C66">
-        <v>89503.216666666674</v>
+        <v>54953.503333333334</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="3">
-        <v>176818.51</v>
+      <c r="E66">
+        <v>107236.54666666668</v>
       </c>
       <c r="F66" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C67">
-        <v>107771.73666666668</v>
+        <v>89503.216666666674</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="3">
-        <v>221285.44000000003</v>
+        <v>176818.51</v>
       </c>
       <c r="F67" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C68">
-        <v>1407.8400000000001</v>
-      </c>
-      <c r="D68">
-        <v>2.2833321826302946</v>
-      </c>
-      <c r="E68">
-        <v>3214.5663799942345</v>
-      </c>
-      <c r="F68">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69">
-        <v>1512.9333333333334</v>
-      </c>
-      <c r="D69">
-        <v>2.2566674641173012</v>
-      </c>
-      <c r="E69">
-        <v>3414.187428711869</v>
-      </c>
-      <c r="F69">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107771.73666666668</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="3">
+        <v>221285.44000000003</v>
+      </c>
+      <c r="F68" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="6">
+        <f>C68*1.088</f>
+        <v>117255.64949333336</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="6">
+        <f>E68*1.098</f>
+        <v>242971.41312000004</v>
+      </c>
+      <c r="F69" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C70">
-        <v>1568.0933333333332</v>
+        <v>1407.8400000000001</v>
       </c>
       <c r="D70">
-        <v>2.2566664492237973</v>
+        <v>2.2833321826302946</v>
       </c>
       <c r="E70">
-        <v>3538.6636145848415</v>
+        <v>3214.5663799942345</v>
       </c>
       <c r="F70">
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C71">
-        <v>1627.8566666666666</v>
+        <v>1512.9333333333334</v>
       </c>
       <c r="D71">
-        <v>2.2699993696956229</v>
+        <v>2.2566674641173012</v>
       </c>
       <c r="E71">
-        <v>3695.2336072881508</v>
+        <v>3414.187428711869</v>
       </c>
       <c r="F71">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C72">
-        <v>1727.4166666666667</v>
+        <v>1568.0933333333332</v>
       </c>
       <c r="D72">
-        <v>2.2933332890394675</v>
+        <v>2.2566664492237973</v>
       </c>
       <c r="E72">
-        <v>3961.5421457082603</v>
+        <v>3538.6636145848415</v>
       </c>
       <c r="F72">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C73">
-        <v>1793.25</v>
+        <v>1627.8566666666666</v>
       </c>
       <c r="D73">
-        <v>2.2900012158288221</v>
+        <v>2.2699993696956229</v>
       </c>
       <c r="E73">
-        <v>4106.5446802850356</v>
+        <v>3695.2336072881508</v>
       </c>
       <c r="F73">
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C74">
-        <v>1888.4666666666665</v>
+        <v>1727.4166666666667</v>
       </c>
       <c r="D74">
-        <v>2.3099985723486531</v>
+        <v>2.2933332890394675</v>
       </c>
       <c r="E74">
-        <v>4362.3553039280196</v>
+        <v>3961.5421457082603</v>
       </c>
       <c r="F74">
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C75">
-        <v>2008.5233333333335</v>
+        <v>1793.25</v>
       </c>
       <c r="D75">
-        <v>2.3500034468962632</v>
+        <v>2.2900012158288221</v>
       </c>
       <c r="E75">
-        <v>4720.0367565049064</v>
+        <v>4106.5446802850356</v>
       </c>
       <c r="F75">
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C76">
-        <v>2157.0133333333338</v>
+        <v>1888.4666666666665</v>
       </c>
       <c r="D76">
-        <v>2.3633421555183585</v>
+        <v>2.3099985723486531</v>
       </c>
       <c r="E76">
-        <v>5097.7605406818402</v>
+        <v>4362.3553039280196</v>
       </c>
       <c r="F76">
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C77">
-        <v>2461.6066666666666</v>
+        <v>2008.5233333333335</v>
       </c>
       <c r="D77">
-        <v>2.3299995769133131</v>
+        <v>2.3500034468962632</v>
       </c>
       <c r="E77">
-        <v>5735.5424918603239</v>
+        <v>4720.0367565049064</v>
       </c>
       <c r="F77">
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C78">
-        <v>2886.3433333333337</v>
+        <v>2157.0133333333338</v>
       </c>
       <c r="D78">
-        <v>2.3333339254255949</v>
+        <v>2.3633421555183585</v>
       </c>
       <c r="E78">
-        <v>6734.8028200926638</v>
+        <v>5097.7605406818402</v>
       </c>
       <c r="F78">
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C79">
-        <v>3188.4933333333333</v>
+        <v>2461.6066666666666</v>
       </c>
       <c r="D79">
-        <v>2.3266660818220526</v>
+        <v>2.3299995769133131</v>
       </c>
       <c r="E79">
-        <v>7418.559290782403</v>
+        <v>5735.5424918603239</v>
       </c>
       <c r="F79">
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C80">
-        <v>3471.27</v>
+        <v>2886.3433333333337</v>
       </c>
       <c r="D80">
-        <v>2.3466665542640235</v>
+        <v>2.3333339254255949</v>
       </c>
       <c r="E80">
-        <v>8145.9132098200771</v>
+        <v>6734.8028200926638</v>
       </c>
       <c r="F80">
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C81">
-        <v>3852.9933333333333</v>
+        <v>3188.4933333333333</v>
       </c>
       <c r="D81">
-        <v>2.3366669772453887</v>
+        <v>2.3266660818220526</v>
       </c>
       <c r="E81">
-        <v>9003.1622855466339</v>
+        <v>7418.559290782403</v>
       </c>
       <c r="F81">
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C82">
-        <v>4349.9033333333327</v>
+        <v>3471.27</v>
       </c>
       <c r="D82">
-        <v>2.3399994490907887</v>
+        <v>2.3466665542640235</v>
       </c>
       <c r="E82">
-        <v>10178.771403598184</v>
+        <v>8145.9132098200771</v>
       </c>
       <c r="F82">
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C83">
-        <v>4892.8066666666664</v>
+        <v>3852.9933333333333</v>
       </c>
       <c r="D83">
-        <v>2.2766666253681076</v>
+        <v>2.3366669772453887</v>
       </c>
       <c r="E83">
-        <v>11139.289642378579</v>
+        <v>9003.1622855466339</v>
       </c>
       <c r="F83">
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C84">
-        <v>5170.1899999999996</v>
+        <v>4349.9033333333327</v>
       </c>
       <c r="D84">
-        <v>2.2533331776220744</v>
+        <v>2.3399994490907887</v>
       </c>
       <c r="E84">
-        <v>11650.160661609872</v>
+        <v>10178.771403598184</v>
       </c>
       <c r="F84">
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C85">
-        <v>5451.6652066666675</v>
+        <v>4892.8066666666664</v>
       </c>
       <c r="D85">
-        <v>2.2766672054388875</v>
+        <v>2.2766666253681076</v>
       </c>
       <c r="E85">
-        <v>12411.627391050217</v>
+        <v>11139.289642378579</v>
       </c>
       <c r="F85">
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C86">
-        <v>6276.4901800000007</v>
+        <v>5170.1899999999996</v>
       </c>
       <c r="D86">
-        <v>2.2466674811371856</v>
+        <v>2.2533331776220744</v>
       </c>
       <c r="E86">
-        <v>14101.186383082882</v>
+        <v>11650.160661609872</v>
       </c>
       <c r="F86">
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C87">
-        <v>7168.8280198293405</v>
+        <v>5451.6652066666675</v>
       </c>
       <c r="D87">
-        <v>2.216666397532395</v>
+        <v>2.2766672054388875</v>
       </c>
       <c r="E87">
-        <v>15890.900181244397</v>
+        <v>12411.627391050217</v>
       </c>
       <c r="F87">
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C88">
-        <v>7976.9998533333337</v>
+        <v>6276.4901800000007</v>
       </c>
       <c r="D88">
-        <v>2.2000000154222241</v>
+        <v>2.2466674811371856</v>
       </c>
       <c r="E88">
-        <v>17549.399800356412</v>
+        <v>14101.186383082882</v>
       </c>
       <c r="F88">
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C89">
-        <v>8543.8566666666684</v>
+        <v>7168.8280198293405</v>
       </c>
       <c r="D89">
-        <v>2.1900001031151501</v>
+        <v>2.216666397532395</v>
       </c>
       <c r="E89">
-        <v>18711.046981001065</v>
+        <v>15890.900181244397</v>
       </c>
       <c r="F89">
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C90">
-        <v>9312.753333333334</v>
+        <v>7976.9998533333337</v>
       </c>
       <c r="D90">
-        <v>2.1766667307693508</v>
+        <v>2.2000000154222241</v>
       </c>
       <c r="E90">
-        <v>20270.760352528043</v>
+        <v>17549.399800356412</v>
       </c>
       <c r="F90">
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C91">
-        <v>10923.403333333334</v>
-      </c>
-      <c r="D91" s="4">
-        <v>2.1133333333333333</v>
-      </c>
-      <c r="E91" s="2">
-        <v>23070.036666666667</v>
+        <v>8543.8566666666684</v>
+      </c>
+      <c r="D91">
+        <v>2.1900001031151501</v>
+      </c>
+      <c r="E91">
+        <v>18711.046981001065</v>
       </c>
       <c r="F91">
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C92">
-        <v>12996</v>
-      </c>
-      <c r="D92" s="4">
-        <v>2.0966666666666662</v>
-      </c>
-      <c r="E92" s="2">
-        <v>27250.273333333334</v>
+        <v>9312.753333333334</v>
+      </c>
+      <c r="D92">
+        <v>2.1766667307693508</v>
+      </c>
+      <c r="E92">
+        <v>20270.760352528043</v>
       </c>
       <c r="F92">
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C93">
-        <v>15461.386666666667</v>
+        <v>10923.403333333334</v>
       </c>
       <c r="D93" s="4">
-        <v>2.11</v>
+        <v>2.1133333333333333</v>
       </c>
       <c r="E93" s="2">
-        <v>32623.526666666668</v>
-      </c>
-      <c r="F93" s="4">
+        <v>23070.036666666667</v>
+      </c>
+      <c r="F93">
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C94">
-        <v>18688.276666666668</v>
+        <v>12996</v>
       </c>
       <c r="D94" s="4">
-        <v>2.12</v>
+        <v>2.0966666666666662</v>
       </c>
       <c r="E94" s="2">
-        <v>39625.136666666665</v>
-      </c>
-      <c r="F94" s="4">
+        <v>27250.273333333334</v>
+      </c>
+      <c r="F94">
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C95">
-        <v>23273.386666666669</v>
-      </c>
-      <c r="D95" s="4"/>
+        <v>15461.386666666667</v>
+      </c>
+      <c r="D95" s="4">
+        <v>2.11</v>
+      </c>
       <c r="E95" s="2">
-        <v>48191.623333333329</v>
+        <v>32623.526666666668</v>
       </c>
       <c r="F95" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C96">
-        <v>25378.636666666669</v>
-      </c>
-      <c r="D96" s="4"/>
+        <v>18688.276666666668</v>
+      </c>
+      <c r="D96" s="4">
+        <v>2.12</v>
+      </c>
       <c r="E96" s="2">
-        <v>59127.903333333328</v>
+        <v>39625.136666666665</v>
       </c>
       <c r="F96" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C97">
-        <v>37898.576666666668</v>
+        <v>23273.386666666669</v>
       </c>
       <c r="D97" s="4"/>
-      <c r="E97">
-        <v>77564.396666666667</v>
+      <c r="E97" s="2">
+        <v>48191.623333333329</v>
       </c>
       <c r="F97" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C98">
-        <v>57053.06</v>
+        <v>25378.636666666669</v>
       </c>
       <c r="D98" s="4"/>
-      <c r="E98">
-        <v>112238.09333333334</v>
+      <c r="E98" s="2">
+        <v>59127.903333333328</v>
       </c>
       <c r="F98" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C99">
-        <v>92941.88</v>
+        <v>37898.576666666668</v>
       </c>
       <c r="D99" s="4"/>
-      <c r="E99" s="3">
-        <v>185468.55333333334</v>
+      <c r="E99">
+        <v>77564.396666666667</v>
       </c>
       <c r="F99" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C100">
-        <v>110188.70666666667</v>
+        <v>57053.06</v>
       </c>
       <c r="D100" s="4"/>
-      <c r="E100" s="3">
-        <v>228096.34666666668</v>
+      <c r="E100">
+        <v>112238.09333333334</v>
       </c>
       <c r="F100" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C101">
-        <v>1400.57</v>
-      </c>
-      <c r="D101">
-        <v>2.5966733148417425</v>
-      </c>
-      <c r="E101">
-        <v>3636.822744567899</v>
-      </c>
-      <c r="F101">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92941.88</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="3">
+        <v>185468.55333333334</v>
+      </c>
+      <c r="F101" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C102">
-        <v>1508.8066666666666</v>
-      </c>
-      <c r="D102">
-        <v>2.5666657715613712</v>
-      </c>
-      <c r="E102">
-        <v>3872.6024272369405</v>
-      </c>
-      <c r="F102">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103">
-        <v>1570.2966666666669</v>
-      </c>
-      <c r="D103">
-        <v>2.5666686548477995</v>
-      </c>
-      <c r="E103">
-        <v>4030.431233145317</v>
-      </c>
-      <c r="F103">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110188.70666666667</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="3">
+        <v>228096.34666666668</v>
+      </c>
+      <c r="F102" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" s="6">
+        <f>C102*1.088</f>
+        <v>119885.31285333334</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="6">
+        <f>E102*1.098</f>
+        <v>250449.78864000004</v>
+      </c>
+      <c r="F103" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C104">
-        <v>1635.08</v>
+        <v>1400.57</v>
       </c>
       <c r="D104">
-        <v>2.5799999388042107</v>
+        <v>2.5966733148417425</v>
       </c>
       <c r="E104">
-        <v>4218.5062999399888</v>
+        <v>3636.822744567899</v>
       </c>
       <c r="F104">
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C105">
-        <v>1731.1866666666667</v>
+        <v>1508.8066666666666</v>
       </c>
       <c r="D105">
-        <v>2.6066681174319641</v>
+        <v>2.5666657715613712</v>
       </c>
       <c r="E105">
-        <v>4512.6290893233172</v>
+        <v>3872.6024272369405</v>
       </c>
       <c r="F105">
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C106">
-        <v>1801.53</v>
+        <v>1570.2966666666669</v>
       </c>
       <c r="D106">
-        <v>2.6033329214817233</v>
+        <v>2.5666686548477995</v>
       </c>
       <c r="E106">
-        <v>4689.9823580369693</v>
+        <v>4030.431233145317</v>
       </c>
       <c r="F106">
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C107">
-        <v>1893.9233333333334</v>
+        <v>1635.08</v>
       </c>
       <c r="D107">
-        <v>2.6266674956991776</v>
+        <v>2.5799999388042107</v>
       </c>
       <c r="E107">
-        <v>4974.7068590129056</v>
+        <v>4218.5062999399888</v>
       </c>
       <c r="F107">
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C108">
-        <v>2012.5466666666669</v>
+        <v>1731.1866666666667</v>
       </c>
       <c r="D108">
-        <v>2.6700024162823546</v>
+        <v>2.6066681174319641</v>
       </c>
       <c r="E108">
-        <v>5373.5044628809992</v>
+        <v>4512.6290893233172</v>
       </c>
       <c r="F108">
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C109">
-        <v>2157.92</v>
+        <v>1801.53</v>
       </c>
       <c r="D109">
-        <v>2.6866742418763372</v>
+        <v>2.6033329214817233</v>
       </c>
       <c r="E109">
-        <v>5797.6280800297855</v>
+        <v>4689.9823580369693</v>
       </c>
       <c r="F109">
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C110">
-        <v>2466.96</v>
+        <v>1893.9233333333334</v>
       </c>
       <c r="D110">
-        <v>2.6499998327711922</v>
+        <v>2.6266674956991776</v>
       </c>
       <c r="E110">
-        <v>6537.4435874532201</v>
+        <v>4974.7068590129056</v>
       </c>
       <c r="F110">
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C111">
-        <v>2899.1333333333332</v>
+        <v>2012.5466666666669</v>
       </c>
       <c r="D111">
-        <v>2.6533336955126416</v>
+        <v>2.6700024162823546</v>
       </c>
       <c r="E111">
-        <v>7692.368161117216</v>
+        <v>5373.5044628809992</v>
       </c>
       <c r="F111">
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C112">
-        <v>3196.6433333333334</v>
+        <v>2157.92</v>
       </c>
       <c r="D112">
-        <v>2.6433327968923117</v>
+        <v>2.6866742418763372</v>
       </c>
       <c r="E112">
-        <v>8449.7921629671619</v>
+        <v>5797.6280800297855</v>
       </c>
       <c r="F112">
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C113">
-        <v>3472.4866666666662</v>
+        <v>2466.96</v>
       </c>
       <c r="D113">
-        <v>2.6700002762418342</v>
+        <v>2.6499998327711922</v>
       </c>
       <c r="E113">
-        <v>9271.5403592460843</v>
+        <v>6537.4435874532201</v>
       </c>
       <c r="F113">
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C114">
-        <v>3831.7866666666669</v>
+        <v>2899.1333333333332</v>
       </c>
       <c r="D114">
-        <v>2.6566673875631923</v>
+        <v>2.6533336955126416</v>
       </c>
       <c r="E114">
-        <v>10179.782673432806</v>
+        <v>7692.368161117216</v>
       </c>
       <c r="F114">
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C115">
-        <v>4323.5366666666669</v>
+        <v>3196.6433333333334</v>
       </c>
       <c r="D115">
-        <v>2.6599993192252773</v>
+        <v>2.6433327968923117</v>
       </c>
       <c r="E115">
-        <v>11500.604589978859</v>
+        <v>8449.7921629671619</v>
       </c>
       <c r="F115">
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C116">
-        <v>4860.63</v>
+        <v>3472.4866666666662</v>
       </c>
       <c r="D116">
-        <v>2.5866660114011504</v>
+        <v>2.6700002762418342</v>
       </c>
       <c r="E116">
-        <v>12572.826414996774</v>
+        <v>9271.5403592460843</v>
       </c>
       <c r="F116">
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C117">
-        <v>5133.5566666666664</v>
+        <v>3831.7866666666669</v>
       </c>
       <c r="D117">
-        <v>2.5633337815648347</v>
+        <v>2.6566673875631923</v>
       </c>
       <c r="E117">
-        <v>13159.019223244033</v>
+        <v>10179.782673432806</v>
       </c>
       <c r="F117">
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C118">
-        <v>5388.8293366666667</v>
+        <v>4323.5366666666669</v>
       </c>
       <c r="D118">
-        <v>2.5866669444157488</v>
+        <v>2.6599993192252773</v>
       </c>
       <c r="E118">
-        <v>13939.106714253514</v>
+        <v>11500.604589978859</v>
       </c>
       <c r="F118">
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C119">
-        <v>6226.3025966666655</v>
+        <v>4860.63</v>
       </c>
       <c r="D119">
-        <v>2.5533339607326675</v>
+        <v>2.5866660114011504</v>
       </c>
       <c r="E119">
-        <v>15897.82986986699</v>
+        <v>12572.826414996774</v>
       </c>
       <c r="F119">
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C120">
-        <v>7053.956094359557</v>
+        <v>5133.5566666666664</v>
       </c>
       <c r="D120">
-        <v>2.5199989179647209</v>
+        <v>2.5633337815648347</v>
       </c>
       <c r="E120">
-        <v>17775.961725156732</v>
+        <v>13159.019223244033</v>
       </c>
       <c r="F120">
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C121">
-        <v>7827.2819266666665</v>
+        <v>5388.8293366666667</v>
       </c>
       <c r="D121">
-        <v>2.4999995599835159</v>
+        <v>2.5866669444157488</v>
       </c>
       <c r="E121">
-        <v>19568.201372533593</v>
+        <v>13939.106714253514</v>
       </c>
       <c r="F121">
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C122">
-        <v>8434.4466666666685</v>
+        <v>6226.3025966666655</v>
       </c>
       <c r="D122">
-        <v>2.4900002862288546</v>
+        <v>2.5533339607326675</v>
       </c>
       <c r="E122">
-        <v>21001.774614182013</v>
+        <v>15897.82986986699</v>
       </c>
       <c r="F122">
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C123">
-        <v>9203.9533333333329</v>
+        <v>7053.956094359557</v>
       </c>
       <c r="D123">
-        <v>2.4766663032144218</v>
+        <v>2.5199989179647209</v>
       </c>
       <c r="E123">
-        <v>22795.12107702472</v>
+        <v>17775.961725156732</v>
       </c>
       <c r="F123">
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C124">
-        <v>10803.103333333333</v>
-      </c>
-      <c r="D124" s="4">
-        <v>2.4033333333333338</v>
-      </c>
-      <c r="E124" s="2">
-        <v>25948.593333333334</v>
+        <v>7827.2819266666665</v>
+      </c>
+      <c r="D124">
+        <v>2.4999995599835159</v>
+      </c>
+      <c r="E124">
+        <v>19568.201372533593</v>
       </c>
       <c r="F124">
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C125">
-        <v>12850.676666666666</v>
-      </c>
-      <c r="D125" s="4">
-        <v>2.3866666666666667</v>
-      </c>
-      <c r="E125" s="2">
-        <v>30672.233333333334</v>
+        <v>8434.4466666666685</v>
+      </c>
+      <c r="D125">
+        <v>2.4900002862288546</v>
+      </c>
+      <c r="E125">
+        <v>21001.774614182013</v>
       </c>
       <c r="F125">
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C126">
-        <v>15317.913333333332</v>
-      </c>
-      <c r="D126" s="4">
-        <v>2.4033333333333338</v>
-      </c>
-      <c r="E126" s="2">
-        <v>36813.920000000006</v>
-      </c>
-      <c r="F126" s="4">
+        <v>9203.9533333333329</v>
+      </c>
+      <c r="D126">
+        <v>2.4766663032144218</v>
+      </c>
+      <c r="E126">
+        <v>22795.12107702472</v>
+      </c>
+      <c r="F126">
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C127">
-        <v>18596.316666666666</v>
+        <v>10803.103333333333</v>
       </c>
       <c r="D127" s="4">
-        <v>2.4133333333333336</v>
+        <v>2.4033333333333338</v>
       </c>
       <c r="E127" s="2">
-        <v>44885.636666666665</v>
-      </c>
-      <c r="F127" s="4">
+        <v>25948.593333333334</v>
+      </c>
+      <c r="F127">
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C128">
-        <v>23213.03</v>
-      </c>
-      <c r="D128" s="4"/>
+        <v>12850.676666666666</v>
+      </c>
+      <c r="D128" s="4">
+        <v>2.3866666666666667</v>
+      </c>
       <c r="E128" s="2">
-        <v>54716.480000000003</v>
-      </c>
-      <c r="F128" s="4">
+        <v>30672.233333333334</v>
+      </c>
+      <c r="F128">
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C129">
-        <v>25322.183333333331</v>
-      </c>
-      <c r="D129" s="4"/>
+        <v>15317.913333333332</v>
+      </c>
+      <c r="D129" s="4">
+        <v>2.4033333333333338</v>
+      </c>
       <c r="E129" s="2">
-        <v>67447.150000000009</v>
+        <v>36813.920000000006</v>
       </c>
       <c r="F129" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C130">
-        <v>37817.450000000004</v>
-      </c>
-      <c r="D130" s="4"/>
-      <c r="E130">
-        <v>88100.176666666681</v>
+        <v>18596.316666666666</v>
+      </c>
+      <c r="D130" s="4">
+        <v>2.4133333333333336</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44885.636666666665</v>
       </c>
       <c r="F130" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C131">
-        <v>56707.15</v>
+        <v>23213.03</v>
       </c>
       <c r="D131" s="4"/>
-      <c r="E131">
-        <v>126876.38666666666</v>
+      <c r="E131" s="2">
+        <v>54716.480000000003</v>
       </c>
       <c r="F131" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C132">
-        <v>92067.986666666679</v>
+        <v>25322.183333333331</v>
       </c>
       <c r="D132" s="4"/>
-      <c r="E132" s="3">
-        <v>208924.72666666665</v>
+      <c r="E132" s="2">
+        <v>67447.150000000009</v>
       </c>
       <c r="F132" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C133">
-        <v>110381.49333333333</v>
+        <v>37817.450000000004</v>
       </c>
       <c r="D133" s="4"/>
-      <c r="E133" s="3">
-        <v>260134.81999999998</v>
+      <c r="E133">
+        <v>88100.176666666681</v>
       </c>
       <c r="F133" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C134">
-        <v>1564.0133333333333</v>
-      </c>
-      <c r="D134">
-        <v>2.4366676223869419</v>
-      </c>
+        <v>56707.15</v>
+      </c>
+      <c r="D134" s="4"/>
       <c r="E134">
-        <v>3810.9806503148088</v>
-      </c>
-      <c r="F134">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>126876.38666666666</v>
+      </c>
+      <c r="F134" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C135">
-        <v>1676.1633333333332</v>
-      </c>
-      <c r="D135">
-        <v>2.4066673527145386</v>
-      </c>
-      <c r="E135">
-        <v>4033.9675721505096</v>
-      </c>
-      <c r="F135">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92067.986666666679</v>
+      </c>
+      <c r="D135" s="4"/>
+      <c r="E135" s="3">
+        <v>208924.72666666665</v>
+      </c>
+      <c r="F135" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C136">
-        <v>1746.3966666666665</v>
-      </c>
-      <c r="D136">
-        <v>2.4099984879390788</v>
-      </c>
-      <c r="E136">
-        <v>4208.8133260085133</v>
-      </c>
-      <c r="F136">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110381.49333333333</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="3">
+        <v>260134.81999999998</v>
+      </c>
+      <c r="F136" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
-      </c>
-      <c r="C137">
-        <v>1816.9966666666667</v>
-      </c>
-      <c r="D137">
-        <v>2.4233344640394328</v>
-      </c>
-      <c r="E137">
-        <v>4403.1906433781023</v>
-      </c>
-      <c r="F137">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C137" s="6">
+        <f>C136*1.088</f>
+        <v>120095.06474666667</v>
+      </c>
+      <c r="D137" s="7"/>
+      <c r="E137" s="6">
+        <f>E136*1.098</f>
+        <v>285628.03236000001</v>
+      </c>
+      <c r="F137" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C138">
-        <v>1921.3133333333333</v>
+        <v>1564.0133333333333</v>
       </c>
       <c r="D138">
-        <v>2.4466664247817951</v>
+        <v>2.4366676223869419</v>
       </c>
       <c r="E138">
-        <v>4700.81282415226</v>
+        <v>3810.9806503148088</v>
       </c>
       <c r="F138">
         <v>43</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C139">
-        <v>2003.6533333333334</v>
+        <v>1676.1633333333332</v>
       </c>
       <c r="D139">
-        <v>2.4433343273631092</v>
+        <v>2.4066673527145386</v>
       </c>
       <c r="E139">
-        <v>4895.5949694688516</v>
+        <v>4033.9675721505096</v>
       </c>
       <c r="F139">
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C140">
-        <v>2109.9066666666668</v>
+        <v>1746.3966666666665</v>
       </c>
       <c r="D140">
-        <v>2.4633329259034547</v>
+        <v>2.4099984879390788</v>
       </c>
       <c r="E140">
-        <v>5197.4025625832055</v>
+        <v>4208.8133260085133</v>
       </c>
       <c r="F140">
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C141">
-        <v>2240.1866666666665</v>
+        <v>1816.9966666666667</v>
       </c>
       <c r="D141">
-        <v>2.5100036204837166</v>
+        <v>2.4233344640394328</v>
       </c>
       <c r="E141">
-        <v>5622.8766438926814</v>
+        <v>4403.1906433781023</v>
       </c>
       <c r="F141">
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C142">
-        <v>2394.2533333333331</v>
+        <v>1921.3133333333333</v>
       </c>
       <c r="D142">
-        <v>2.5266708435762499</v>
+        <v>2.4466664247817951</v>
       </c>
       <c r="E142">
-        <v>6049.4900894685807</v>
+        <v>4700.81282415226</v>
       </c>
       <c r="F142">
         <v>43</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C143">
-        <v>2730.5866666666666</v>
+        <v>2003.6533333333334</v>
       </c>
       <c r="D143">
-        <v>2.4900007422966781</v>
+        <v>2.4433343273631092</v>
       </c>
       <c r="E143">
-        <v>6799.1628269054117</v>
+        <v>4895.5949694688516</v>
       </c>
       <c r="F143">
         <v>43</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C144">
-        <v>3212.4866666666662</v>
+        <v>2109.9066666666668</v>
       </c>
       <c r="D144">
-        <v>2.4933332029753319</v>
+        <v>2.4633329259034547</v>
       </c>
       <c r="E144">
-        <v>8009.7996701155462</v>
+        <v>5197.4025625832055</v>
       </c>
       <c r="F144">
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C145">
-        <v>3560.3866666666668</v>
+        <v>2240.1866666666665</v>
       </c>
       <c r="D145">
-        <v>2.4833333559555002</v>
+        <v>2.5100036204837166</v>
       </c>
       <c r="E145">
-        <v>8841.626969432551</v>
+        <v>5622.8766438926814</v>
       </c>
       <c r="F145">
         <v>43</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C146">
-        <v>3867.103333333333</v>
+        <v>2394.2533333333331</v>
       </c>
       <c r="D146">
-        <v>2.503333301435549</v>
+        <v>2.5266708435762499</v>
       </c>
       <c r="E146">
-        <v>9680.6485544257484</v>
+        <v>6049.4900894685807</v>
       </c>
       <c r="F146">
         <v>43</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C147">
-        <v>4256.2033333333338</v>
+        <v>2730.5866666666666</v>
       </c>
       <c r="D147">
-        <v>2.4966666273255518</v>
+        <v>2.4900007422966781</v>
       </c>
       <c r="E147">
-        <v>10626.320821445106</v>
+        <v>6799.1628269054117</v>
       </c>
       <c r="F147">
         <v>43</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C148">
-        <v>4803.0733333333337</v>
+        <v>3212.4866666666662</v>
       </c>
       <c r="D148">
-        <v>2.4966665201374028</v>
+        <v>2.4933332029753319</v>
       </c>
       <c r="E148">
-        <v>11991.672385098091</v>
+        <v>8009.7996701155462</v>
       </c>
       <c r="F148">
         <v>43</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C149">
-        <v>5417.2533333333331</v>
+        <v>3560.3866666666668</v>
       </c>
       <c r="D149">
-        <v>2.4333331061233863</v>
+        <v>2.4833333559555002</v>
       </c>
       <c r="E149">
-        <v>13181.981880257268</v>
+        <v>8841.626969432551</v>
       </c>
       <c r="F149">
         <v>43</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C150">
-        <v>5727.3433333333332</v>
+        <v>3867.103333333333</v>
       </c>
       <c r="D150">
-        <v>2.4066672606284101</v>
+        <v>2.503333301435549</v>
       </c>
       <c r="E150">
-        <v>13783.80969071172</v>
+        <v>9680.6485544257484</v>
       </c>
       <c r="F150">
         <v>43</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C151">
-        <v>6011.6154133333303</v>
+        <v>4256.2033333333338</v>
       </c>
       <c r="D151">
-        <v>2.4266666277203699</v>
+        <v>2.4966666273255518</v>
       </c>
       <c r="E151">
-        <v>14588.18650222539</v>
+        <v>10626.320821445106</v>
       </c>
       <c r="F151">
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C152">
-        <v>6958.7274666666635</v>
+        <v>4803.0733333333337</v>
       </c>
       <c r="D152">
-        <v>2.4000008615090231</v>
+        <v>2.4966665201374028</v>
       </c>
       <c r="E152">
-        <v>16700.951915006495</v>
+        <v>11991.672385098091</v>
       </c>
       <c r="F152">
         <v>43</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C153">
-        <v>7893.0630578679438</v>
+        <v>5417.2533333333331</v>
       </c>
       <c r="D153">
-        <v>2.3700001537436224</v>
+        <v>2.4333331061233863</v>
       </c>
       <c r="E153">
-        <v>18706.560660655134</v>
+        <v>13181.981880257268</v>
       </c>
       <c r="F153">
         <v>43</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C154">
-        <v>8741.9938133333326</v>
+        <v>5727.3433333333332</v>
       </c>
       <c r="D154">
-        <v>2.3500000317922503</v>
+        <v>2.4066672606284101</v>
       </c>
       <c r="E154">
-        <v>20543.685739260985</v>
+        <v>13783.80969071172</v>
       </c>
       <c r="F154">
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C155">
-        <v>9397.5166666666646</v>
+        <v>6011.6154133333303</v>
       </c>
       <c r="D155">
-        <v>2.3333331497145107</v>
+        <v>2.4266666277203699</v>
       </c>
       <c r="E155">
-        <v>21927.537163327939</v>
+        <v>14588.18650222539</v>
       </c>
       <c r="F155">
         <v>43</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C156">
-        <v>10231.09</v>
+        <v>6958.7274666666635</v>
       </c>
       <c r="D156">
-        <v>2.3266664939799031</v>
+        <v>2.4000008615090231</v>
       </c>
       <c r="E156">
-        <v>23804.334299892846</v>
+        <v>16700.951915006495</v>
       </c>
       <c r="F156">
         <v>43</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>35</v>
-      </c>
-      <c r="C157" s="1">
-        <v>12003.11</v>
-      </c>
-      <c r="D157" s="4">
-        <v>2.2566666666666664</v>
-      </c>
-      <c r="E157" s="2">
-        <v>27073.839999999997</v>
+        <v>31</v>
+      </c>
+      <c r="C157">
+        <v>7893.0630578679438</v>
+      </c>
+      <c r="D157">
+        <v>2.3700001537436224</v>
+      </c>
+      <c r="E157">
+        <v>18706.560660655134</v>
       </c>
       <c r="F157">
         <v>43</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>36</v>
-      </c>
-      <c r="C158" s="2">
-        <v>14256.4</v>
-      </c>
-      <c r="D158" s="4">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="E158" s="2">
-        <v>31934.33666666667</v>
+        <v>32</v>
+      </c>
+      <c r="C158">
+        <v>8741.9938133333326</v>
+      </c>
+      <c r="D158">
+        <v>2.3500000317922503</v>
+      </c>
+      <c r="E158">
+        <v>20543.685739260985</v>
       </c>
       <c r="F158">
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>37</v>
-      </c>
-      <c r="C159" s="2">
-        <v>16967.316666666666</v>
-      </c>
-      <c r="D159" s="4">
-        <v>2.2566666666666664</v>
-      </c>
-      <c r="E159" s="2">
-        <v>38293.47</v>
-      </c>
-      <c r="F159" s="4">
+        <v>33</v>
+      </c>
+      <c r="C159">
+        <v>9397.5166666666646</v>
+      </c>
+      <c r="D159">
+        <v>2.3333331497145107</v>
+      </c>
+      <c r="E159">
+        <v>21927.537163327939</v>
+      </c>
+      <c r="F159">
         <v>43</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>38</v>
-      </c>
-      <c r="C160" s="2">
-        <v>20639.343333333334</v>
-      </c>
-      <c r="D160" s="4">
-        <v>2.2633333333333332</v>
-      </c>
-      <c r="E160" s="2">
-        <v>46720.946666666663</v>
-      </c>
-      <c r="F160" s="4">
+        <v>34</v>
+      </c>
+      <c r="C160">
+        <v>10231.09</v>
+      </c>
+      <c r="D160">
+        <v>2.3266664939799031</v>
+      </c>
+      <c r="E160">
+        <v>23804.334299892846</v>
+      </c>
+      <c r="F160">
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>39</v>
-      </c>
-      <c r="C161" s="2">
-        <v>25719.103333333333</v>
-      </c>
-      <c r="D161" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C161" s="1">
+        <v>12003.11</v>
+      </c>
+      <c r="D161" s="4">
+        <v>2.2566666666666664</v>
+      </c>
       <c r="E161" s="2">
-        <v>56860.359999999993</v>
-      </c>
-      <c r="F161" s="4">
+        <v>27073.839999999997</v>
+      </c>
+      <c r="F161">
         <v>43</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C162" s="2">
-        <v>28016.406666666666</v>
-      </c>
-      <c r="D162" s="4"/>
+        <v>14256.4</v>
+      </c>
+      <c r="D162" s="4">
+        <v>2.2400000000000002</v>
+      </c>
       <c r="E162" s="2">
-        <v>69829.633333333331</v>
-      </c>
-      <c r="F162" s="4">
+        <v>31934.33666666667</v>
+      </c>
+      <c r="F162">
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>10</v>
       </c>
       <c r="B163" t="s">
-        <v>41</v>
-      </c>
-      <c r="C163">
-        <v>41554.9</v>
-      </c>
-      <c r="D163" s="4"/>
-      <c r="E163">
-        <v>90869.83666666667</v>
+        <v>37</v>
+      </c>
+      <c r="C163" s="2">
+        <v>16967.316666666666</v>
+      </c>
+      <c r="D163" s="4">
+        <v>2.2566666666666664</v>
+      </c>
+      <c r="E163" s="2">
+        <v>38293.47</v>
       </c>
       <c r="F163" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>42</v>
-      </c>
-      <c r="C164">
-        <v>62527.626666666671</v>
-      </c>
-      <c r="D164" s="4"/>
-      <c r="E164">
-        <v>131138.85666666666</v>
+        <v>38</v>
+      </c>
+      <c r="C164" s="2">
+        <v>20639.343333333334</v>
+      </c>
+      <c r="D164" s="4">
+        <v>2.2633333333333332</v>
+      </c>
+      <c r="E164" s="2">
+        <v>46720.946666666663</v>
       </c>
       <c r="F164" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>10</v>
       </c>
       <c r="B165" t="s">
-        <v>46</v>
-      </c>
-      <c r="C165">
-        <v>102552.28333333333</v>
+        <v>39</v>
+      </c>
+      <c r="C165" s="2">
+        <v>25719.103333333333</v>
       </c>
       <c r="D165" s="4"/>
-      <c r="E165" s="3">
-        <v>218701.44333333333</v>
+      <c r="E165" s="2">
+        <v>56860.359999999993</v>
       </c>
       <c r="F165" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>47</v>
-      </c>
-      <c r="C166">
-        <v>122807.25333333334</v>
+        <v>40</v>
+      </c>
+      <c r="C166" s="2">
+        <v>28016.406666666666</v>
       </c>
       <c r="D166" s="4"/>
-      <c r="E166" s="3">
-        <v>270997.41333333333</v>
+      <c r="E166" s="2">
+        <v>69829.633333333331</v>
       </c>
       <c r="F166" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C167">
-        <v>1607.5600000000002</v>
-      </c>
-      <c r="D167">
-        <v>2.7666650902447016</v>
-      </c>
+        <v>41554.9</v>
+      </c>
+      <c r="D167" s="4"/>
       <c r="E167">
-        <v>4447.5801324737731</v>
-      </c>
-      <c r="F167">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90869.83666666667</v>
+      </c>
+      <c r="F167" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C168">
-        <v>1735.14</v>
-      </c>
-      <c r="D168">
-        <v>2.7333331849172779</v>
-      </c>
+        <v>62527.626666666671</v>
+      </c>
+      <c r="D168" s="4"/>
       <c r="E168">
-        <v>4742.7157424773659</v>
-      </c>
-      <c r="F168">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+        <v>131138.85666666666</v>
+      </c>
+      <c r="F168" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C169">
-        <v>1813.3466666666666</v>
-      </c>
-      <c r="D169">
-        <v>2.7366679224228307</v>
-      </c>
-      <c r="E169">
-        <v>4962.5276548990314</v>
-      </c>
-      <c r="F169">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+        <v>102552.28333333333</v>
+      </c>
+      <c r="D169" s="4"/>
+      <c r="E169" s="3">
+        <v>218701.44333333333</v>
+      </c>
+      <c r="F169" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C170">
-        <v>1890.2266666666667</v>
-      </c>
-      <c r="D170">
-        <v>2.7500001416616198</v>
-      </c>
-      <c r="E170">
-        <v>5198.1236011059045</v>
-      </c>
-      <c r="F170">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+        <v>122807.25333333334</v>
+      </c>
+      <c r="D170" s="4"/>
+      <c r="E170" s="3">
+        <v>270997.41333333333</v>
+      </c>
+      <c r="F170" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>16</v>
-      </c>
-      <c r="C171">
-        <v>1994.2466666666667</v>
-      </c>
-      <c r="D171">
-        <v>2.78333191269029</v>
-      </c>
-      <c r="E171">
-        <v>5550.650389109569</v>
-      </c>
-      <c r="F171">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C171" s="6">
+        <f>C170*1.088</f>
+        <v>133614.29162666667</v>
+      </c>
+      <c r="D171" s="7"/>
+      <c r="E171" s="6">
+        <f>E170*1.098</f>
+        <v>297555.15984000004</v>
+      </c>
+      <c r="F171" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>11</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C172">
-        <v>2070.3333333333335</v>
+        <v>1607.5600000000002</v>
       </c>
       <c r="D172">
-        <v>2.7733318900802555</v>
+        <v>2.7666650902447016</v>
       </c>
       <c r="E172">
-        <v>5741.7214564294891</v>
+        <v>4447.5801324737731</v>
       </c>
       <c r="F172">
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>11</v>
       </c>
       <c r="B173" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C173">
-        <v>2183.8666666666668</v>
+        <v>1735.14</v>
       </c>
       <c r="D173">
-        <v>2.7966653921227143</v>
+        <v>2.7333331849172779</v>
       </c>
       <c r="E173">
-        <v>6107.5443276770584</v>
+        <v>4742.7157424773659</v>
       </c>
       <c r="F173">
         <v>44</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C174">
-        <v>2327.4300000000003</v>
+        <v>1813.3466666666666</v>
       </c>
       <c r="D174">
-        <v>2.8466745918511189</v>
+        <v>2.7366679224228307</v>
       </c>
       <c r="E174">
-        <v>6625.4358453120503</v>
+        <v>4962.5276548990314</v>
       </c>
       <c r="F174">
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C175">
-        <v>2494.2466666666664</v>
+        <v>1890.2266666666667</v>
       </c>
       <c r="D175">
-        <v>2.8666747379044466</v>
+        <v>2.7500001416616198</v>
       </c>
       <c r="E175">
-        <v>7150.1939094357058</v>
+        <v>5198.1236011059045</v>
       </c>
       <c r="F175">
         <v>44</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>11</v>
       </c>
       <c r="B176" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C176">
-        <v>2836.2033333333334</v>
+        <v>1994.2466666666667</v>
       </c>
       <c r="D176">
-        <v>2.8266674765391717</v>
+        <v>2.78333191269029</v>
       </c>
       <c r="E176">
-        <v>8017.0037191853207</v>
+        <v>5550.650389109569</v>
       </c>
       <c r="F176">
         <v>44</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>11</v>
       </c>
       <c r="B177" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C177">
-        <v>3341.0500000000006</v>
+        <v>2070.3333333333335</v>
       </c>
       <c r="D177">
-        <v>2.826666635393273</v>
+        <v>2.7733318900802555</v>
       </c>
       <c r="E177">
-        <v>9444.0345621806973</v>
+        <v>5741.7214564294891</v>
       </c>
       <c r="F177">
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>11</v>
       </c>
       <c r="B178" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C178">
-        <v>3688.9233333333336</v>
+        <v>2183.8666666666668</v>
       </c>
       <c r="D178">
-        <v>2.82333354031101</v>
+        <v>2.7966653921227143</v>
       </c>
       <c r="E178">
-        <v>10415.060974635893</v>
+        <v>6107.5443276770584</v>
       </c>
       <c r="F178">
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>11</v>
       </c>
       <c r="B179" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C179">
-        <v>4004.81</v>
+        <v>2327.4300000000003</v>
       </c>
       <c r="D179">
-        <v>2.8399999152458899</v>
+        <v>2.8466745918511189</v>
       </c>
       <c r="E179">
-        <v>11373.660060575892</v>
+        <v>6625.4358453120503</v>
       </c>
       <c r="F179">
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C180">
-        <v>4461.7833333333338</v>
+        <v>2494.2466666666664</v>
       </c>
       <c r="D180">
-        <v>2.8366659881853717</v>
+        <v>2.8666747379044466</v>
       </c>
       <c r="E180">
-        <v>12656.589028319024</v>
+        <v>7150.1939094357058</v>
       </c>
       <c r="F180">
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>11</v>
       </c>
       <c r="B181" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C181">
-        <v>5037.2700000000004</v>
+        <v>2836.2033333333334</v>
       </c>
       <c r="D181">
-        <v>2.8366666174383024</v>
+        <v>2.8266674765391717</v>
       </c>
       <c r="E181">
-        <v>14289.055652023439</v>
+        <v>8017.0037191853207</v>
       </c>
       <c r="F181">
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>11</v>
       </c>
       <c r="B182" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C182">
-        <v>5672.95</v>
+        <v>3341.0500000000006</v>
       </c>
       <c r="D182">
-        <v>2.7600008335006847</v>
+        <v>2.826666635393273</v>
       </c>
       <c r="E182">
-        <v>15657.346728407709</v>
+        <v>9444.0345621806973</v>
       </c>
       <c r="F182">
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C183">
-        <v>5974.1833333333334</v>
+        <v>3688.9233333333336</v>
       </c>
       <c r="D183">
-        <v>2.7366666065192304</v>
+        <v>2.82333354031101</v>
       </c>
       <c r="E183">
-        <v>16349.348029557077</v>
+        <v>10415.060974635893</v>
       </c>
       <c r="F183">
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>11</v>
       </c>
       <c r="B184" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C184">
-        <v>6307.2934499999965</v>
+        <v>4004.81</v>
       </c>
       <c r="D184">
-        <v>2.7566664138396657</v>
+        <v>2.8399999152458899</v>
       </c>
       <c r="E184">
-        <v>17387.104015845904</v>
+        <v>11373.660060575892</v>
       </c>
       <c r="F184">
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>11</v>
       </c>
       <c r="B185" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C185">
-        <v>7291.5956999999971</v>
+        <v>4461.7833333333338</v>
       </c>
       <c r="D185">
-        <v>2.723332423844615</v>
+        <v>2.8366659881853717</v>
       </c>
       <c r="E185">
-        <v>19857.438991375966</v>
+        <v>12656.589028319024</v>
       </c>
       <c r="F185">
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>11</v>
       </c>
       <c r="B186" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C186">
-        <v>8313.145985519297</v>
+        <v>5037.2700000000004</v>
       </c>
       <c r="D186">
-        <v>2.6899998813513446</v>
+        <v>2.8366666174383024</v>
       </c>
       <c r="E186">
-        <v>22362.361714703315</v>
+        <v>14289.055652023439</v>
       </c>
       <c r="F186">
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C187">
-        <v>9145.5601499999993</v>
+        <v>5672.95</v>
       </c>
       <c r="D187">
-        <v>2.6699988689174741</v>
+        <v>2.7600008335006847</v>
       </c>
       <c r="E187">
-        <v>24418.635256116722</v>
+        <v>15657.346728407709</v>
       </c>
       <c r="F187">
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C188">
-        <v>9774.0333333333347</v>
+        <v>5974.1833333333334</v>
       </c>
       <c r="D188">
-        <v>2.6533332984517926</v>
+        <v>2.7366666065192304</v>
       </c>
       <c r="E188">
-        <v>25933.768103511105</v>
+        <v>16349.348029557077</v>
       </c>
       <c r="F188">
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>11</v>
       </c>
       <c r="B189" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C189">
-        <v>10665.546666666667</v>
+        <v>6307.2934499999965</v>
       </c>
       <c r="D189">
-        <v>2.640000076351567</v>
+        <v>2.7566664138396657</v>
       </c>
       <c r="E189">
-        <v>28157.044014331201</v>
+        <v>17387.104015845904</v>
       </c>
       <c r="F189">
         <v>44</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>11</v>
       </c>
       <c r="B190" t="s">
-        <v>35</v>
-      </c>
-      <c r="C190" s="1">
-        <v>12511.243333333332</v>
-      </c>
-      <c r="D190" s="4">
-        <v>2.5633333333333335</v>
-      </c>
-      <c r="E190" s="2">
-        <v>32053.226666666666</v>
+        <v>30</v>
+      </c>
+      <c r="C190">
+        <v>7291.5956999999971</v>
+      </c>
+      <c r="D190">
+        <v>2.723332423844615</v>
+      </c>
+      <c r="E190">
+        <v>19857.438991375966</v>
       </c>
       <c r="F190">
         <v>44</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>11</v>
       </c>
       <c r="B191" t="s">
-        <v>36</v>
-      </c>
-      <c r="C191" s="2">
-        <v>14881.136666666665</v>
-      </c>
-      <c r="D191" s="4">
-        <v>2.5433333333333334</v>
-      </c>
-      <c r="E191" s="2">
-        <v>37849.986666666671</v>
+        <v>31</v>
+      </c>
+      <c r="C191">
+        <v>8313.145985519297</v>
+      </c>
+      <c r="D191">
+        <v>2.6899998813513446</v>
+      </c>
+      <c r="E191">
+        <v>22362.361714703315</v>
       </c>
       <c r="F191">
         <v>44</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>11</v>
       </c>
       <c r="B192" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C192">
-        <v>17856.789999999997</v>
+        <v>9145.5601499999993</v>
       </c>
       <c r="D192">
-        <v>2.56</v>
+        <v>2.6699988689174741</v>
       </c>
       <c r="E192">
-        <v>45713.383333333331</v>
+        <v>24418.635256116722</v>
       </c>
       <c r="F192">
         <v>44</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>11</v>
       </c>
       <c r="B193" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C193">
-        <v>21698.27</v>
+        <v>9774.0333333333347</v>
       </c>
       <c r="D193">
-        <v>2.5733333333333333</v>
+        <v>2.6533332984517926</v>
       </c>
       <c r="E193">
-        <v>55843.573333333334</v>
+        <v>25933.768103511105</v>
       </c>
       <c r="F193">
         <v>44</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>11</v>
       </c>
       <c r="B194" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C194">
-        <v>27061.923333333336</v>
+        <v>10665.546666666667</v>
+      </c>
+      <c r="D194">
+        <v>2.640000076351567</v>
       </c>
       <c r="E194">
-        <v>68027.776666666672</v>
+        <v>28157.044014331201</v>
       </c>
       <c r="F194">
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>11</v>
       </c>
       <c r="B195" t="s">
-        <v>40</v>
-      </c>
-      <c r="C195">
-        <v>29407.166666666668</v>
-      </c>
-      <c r="E195">
-        <v>82498.666666666657</v>
+        <v>35</v>
+      </c>
+      <c r="C195" s="1">
+        <v>12511.243333333332</v>
+      </c>
+      <c r="D195" s="4">
+        <v>2.5633333333333335</v>
+      </c>
+      <c r="E195" s="2">
+        <v>32053.226666666666</v>
       </c>
       <c r="F195">
         <v>44</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>11</v>
       </c>
       <c r="B196" t="s">
-        <v>41</v>
-      </c>
-      <c r="C196">
-        <v>43556.566666666673</v>
-      </c>
-      <c r="E196">
-        <v>108270.79666666668</v>
+        <v>36</v>
+      </c>
+      <c r="C196" s="2">
+        <v>14881.136666666665</v>
+      </c>
+      <c r="D196" s="4">
+        <v>2.5433333333333334</v>
+      </c>
+      <c r="E196" s="2">
+        <v>37849.986666666671</v>
       </c>
       <c r="F196">
         <v>44</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>11</v>
       </c>
       <c r="B197" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C197">
-        <v>65121.743333333339</v>
+        <v>17856.789999999997</v>
+      </c>
+      <c r="D197">
+        <v>2.56</v>
       </c>
       <c r="E197">
-        <v>155201.95666666667</v>
+        <v>45713.383333333331</v>
       </c>
       <c r="F197">
         <v>44</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C198">
-        <v>106678.96333333333</v>
-      </c>
-      <c r="E198" s="3">
-        <v>258084.29</v>
+        <v>21698.27</v>
+      </c>
+      <c r="D198">
+        <v>2.5733333333333333</v>
+      </c>
+      <c r="E198">
+        <v>55843.573333333334</v>
       </c>
       <c r="F198">
         <v>44</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>11</v>
       </c>
       <c r="B199" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C199">
-        <v>126404.24333333333</v>
-      </c>
-      <c r="E199" s="3">
-        <v>316858.0566666667</v>
+        <v>27061.923333333336</v>
+      </c>
+      <c r="E199">
+        <v>68027.776666666672</v>
       </c>
       <c r="F199">
         <v>44</v>
       </c>
     </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>11</v>
+      </c>
+      <c r="B200" t="s">
+        <v>40</v>
+      </c>
+      <c r="C200">
+        <v>29407.166666666668</v>
+      </c>
+      <c r="E200">
+        <v>82498.666666666657</v>
+      </c>
+      <c r="F200">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>11</v>
+      </c>
+      <c r="B201" t="s">
+        <v>41</v>
+      </c>
+      <c r="C201">
+        <v>43556.566666666673</v>
+      </c>
+      <c r="E201">
+        <v>108270.79666666668</v>
+      </c>
+      <c r="F201">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>11</v>
+      </c>
+      <c r="B202" t="s">
+        <v>42</v>
+      </c>
+      <c r="C202">
+        <v>65121.743333333339</v>
+      </c>
+      <c r="E202">
+        <v>155201.95666666667</v>
+      </c>
+      <c r="F202">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>11</v>
+      </c>
+      <c r="B203" t="s">
+        <v>46</v>
+      </c>
+      <c r="C203">
+        <v>106678.96333333333</v>
+      </c>
+      <c r="E203" s="3">
+        <v>258084.29</v>
+      </c>
+      <c r="F203">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>11</v>
+      </c>
+      <c r="B204" t="s">
+        <v>47</v>
+      </c>
+      <c r="C204">
+        <v>126404.24333333333</v>
+      </c>
+      <c r="E204" s="3">
+        <v>316858.0566666667</v>
+      </c>
+      <c r="F204">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>11</v>
+      </c>
+      <c r="B205" t="s">
+        <v>48</v>
+      </c>
+      <c r="C205" s="6">
+        <f>C204*1.088</f>
+        <v>137527.81674666668</v>
+      </c>
+      <c r="D205" s="7"/>
+      <c r="E205" s="6">
+        <f>E204*1.098</f>
+        <v>347910.14622000005</v>
+      </c>
+      <c r="F205">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F197">
-    <sortCondition ref="F2:F197"/>
-    <sortCondition ref="B2:B197"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F202">
+    <sortCondition ref="F2:F202"/>
+    <sortCondition ref="B2:B202"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1 B200:B1048576" numberStoredAsText="1"/>
+    <ignoredError sqref="B1 B206:B1048576" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4484,9 +4615,9 @@
       <selection activeCell="AM2" sqref="AM2:AP2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -4620,7 +4751,7 @@
         <v>187172.43</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="D2" s="5">
         <f>AVERAGE(D1:F1)</f>
         <v>92024.92333333334</v>

--- a/fuentes/canastas_serie.xlsx
+++ b/fuentes/canastas_serie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josed\Documents\Repositorios_git\pobreza_arg\fuentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6BEEE1-0153-4A9F-B0AE-61763B1FAF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDFC11E-4193-4696-AB17-FB19079FE683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="50">
   <si>
     <t>REGION</t>
   </si>
@@ -182,6 +182,9 @@
   <si>
     <t>2024.3</t>
   </si>
+  <si>
+    <t>2024.4</t>
+  </si>
 </sst>
 </file>
 
@@ -208,18 +211,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -235,15 +232,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,20 +557,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F205"/>
+  <dimension ref="A1:L211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -792,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -812,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -972,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1031,8 +1031,9 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1051,8 +1052,9 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1071,8 +1073,9 @@
       <c r="F25" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1091,8 +1094,9 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1111,8 +1115,9 @@
       <c r="F27" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1131,8 +1136,9 @@
       <c r="F28" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1149,8 +1155,9 @@
       <c r="F29" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1167,8 +1174,9 @@
       <c r="F30" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1185,8 +1193,9 @@
       <c r="F31" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1203,8 +1212,9 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1221,8 +1231,9 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1239,3370 +1250,3466 @@
       <c r="F34" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="6">
-        <f>C34*1.088</f>
-        <v>135365.1773866663</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="6">
-        <f>E34*1.098</f>
-        <v>302356.01478000003</v>
-      </c>
-      <c r="F35" s="7">
+      <c r="C35" s="7">
+        <v>135479.06</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="7">
+        <v>302605.62333333329</v>
+      </c>
+      <c r="F35" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36">
-        <v>1372.3499999999997</v>
-      </c>
-      <c r="D36">
-        <v>2.2633356450273592</v>
-      </c>
-      <c r="E36">
-        <v>3106.0886724532957</v>
-      </c>
-      <c r="F36">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="7">
+        <v>142737.08666666667</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="7">
+        <v>324971.70999999996</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>1472.08</v>
+        <v>1372.3499999999997</v>
       </c>
       <c r="D37">
-        <v>2.2366671933143478</v>
+        <v>2.2633356450273592</v>
       </c>
       <c r="E37">
-        <v>3292.5530419341849</v>
+        <v>3106.0886724532957</v>
       </c>
       <c r="F37">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38">
-        <v>1525.4499999999998</v>
+        <v>1472.08</v>
       </c>
       <c r="D38">
-        <v>2.236667264128847</v>
+        <v>2.2366671933143478</v>
       </c>
       <c r="E38">
-        <v>3411.924078065349</v>
+        <v>3292.5530419341849</v>
       </c>
       <c r="F38">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39">
-        <v>1578.5933333333332</v>
+        <v>1525.4499999999998</v>
       </c>
       <c r="D39">
-        <v>2.2500012035711592</v>
+        <v>2.236667264128847</v>
       </c>
       <c r="E39">
-        <v>3551.8368999494078</v>
+        <v>3411.924078065349</v>
       </c>
       <c r="F39">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40">
-        <v>1680.6133333333335</v>
+        <v>1578.5933333333332</v>
       </c>
       <c r="D40">
-        <v>2.2733346106482792</v>
+        <v>2.2500012035711592</v>
       </c>
       <c r="E40">
-        <v>3820.5964577836403</v>
+        <v>3551.8368999494078</v>
       </c>
       <c r="F40">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41">
-        <v>1752.61</v>
+        <v>1680.6133333333335</v>
       </c>
       <c r="D41">
-        <v>2.2700006195967686</v>
+        <v>2.2733346106482792</v>
       </c>
       <c r="E41">
-        <v>3978.4257859114923</v>
+        <v>3820.5964577836403</v>
       </c>
       <c r="F41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42">
-        <v>1845.2433333333331</v>
+        <v>1752.61</v>
       </c>
       <c r="D42">
-        <v>2.2899996432067202</v>
+        <v>2.2700006195967686</v>
       </c>
       <c r="E42">
-        <v>4225.6065749629115</v>
+        <v>3978.4257859114923</v>
       </c>
       <c r="F42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43">
-        <v>1960.3633333333335</v>
+        <v>1845.2433333333331</v>
       </c>
       <c r="D43">
-        <v>2.3300127274819515</v>
+        <v>2.2899996432067202</v>
       </c>
       <c r="E43">
-        <v>4567.6715171556107</v>
+        <v>4225.6065749629115</v>
       </c>
       <c r="F43">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44">
-        <v>2096.0766666666664</v>
+        <v>1960.3633333333335</v>
       </c>
       <c r="D44">
-        <v>2.3433357555579497</v>
+        <v>2.3300127274819515</v>
       </c>
       <c r="E44">
-        <v>4911.8113993907209</v>
+        <v>4567.6715171556107</v>
       </c>
       <c r="F44">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45">
-        <v>2403.7533333333336</v>
+        <v>2096.0766666666664</v>
       </c>
       <c r="D45">
-        <v>2.3100009052004853</v>
+        <v>2.3433357555579497</v>
       </c>
       <c r="E45">
-        <v>5552.6723758786848</v>
+        <v>4911.8113993907209</v>
       </c>
       <c r="F45">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46">
-        <v>2812.15</v>
+        <v>2403.7533333333336</v>
       </c>
       <c r="D46">
-        <v>2.3133337034292469</v>
+        <v>2.3100009052004853</v>
       </c>
       <c r="E46">
-        <v>6505.4413740985574</v>
+        <v>5552.6723758786848</v>
       </c>
       <c r="F46">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47">
-        <v>3112.0833333333335</v>
+        <v>2812.15</v>
       </c>
       <c r="D47">
-        <v>2.3066670887433833</v>
+        <v>2.3133337034292469</v>
       </c>
       <c r="E47">
-        <v>7178.5402024268042</v>
+        <v>6505.4413740985574</v>
       </c>
       <c r="F47">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48">
-        <v>3396.72</v>
+        <v>3112.0833333333335</v>
       </c>
       <c r="D48">
-        <v>2.3233328792898704</v>
+        <v>2.3066670887433833</v>
       </c>
       <c r="E48">
-        <v>7891.7112577414882</v>
+        <v>7178.5402024268042</v>
       </c>
       <c r="F48">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49">
-        <v>3751.7566666666662</v>
+        <v>3396.72</v>
       </c>
       <c r="D49">
-        <v>2.3166665327081546</v>
+        <v>2.3233328792898704</v>
       </c>
       <c r="E49">
-        <v>8691.5691085313701</v>
+        <v>7891.7112577414882</v>
       </c>
       <c r="F49">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C50">
-        <v>4233.9533333333338</v>
+        <v>3751.7566666666662</v>
       </c>
       <c r="D50">
-        <v>2.3199999353936422</v>
+        <v>2.3166665327081546</v>
       </c>
       <c r="E50">
-        <v>9822.7714597930299</v>
+        <v>8691.5691085313701</v>
       </c>
       <c r="F50">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C51">
-        <v>4742.0566666666664</v>
+        <v>4233.9533333333338</v>
       </c>
       <c r="D51">
-        <v>2.2566668578673528</v>
+        <v>2.3199999353936422</v>
       </c>
       <c r="E51">
-        <v>10701.242117795598</v>
+        <v>9822.7714597930299</v>
       </c>
       <c r="F51">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52">
-        <v>5042.72</v>
+        <v>4742.0566666666664</v>
       </c>
       <c r="D52">
-        <v>2.2333340196301212</v>
+        <v>2.2566668578673528</v>
       </c>
       <c r="E52">
-        <v>11262.078127469205</v>
+        <v>10701.242117795598</v>
       </c>
       <c r="F52">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53">
-        <v>5298.0018666666665</v>
+        <v>5042.72</v>
       </c>
       <c r="D53">
-        <v>2.2566669533266457</v>
+        <v>2.2333340196301212</v>
       </c>
       <c r="E53">
-        <v>11955.825731169549</v>
+        <v>11262.078127469205</v>
       </c>
       <c r="F53">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54">
-        <v>6089.1746666666668</v>
+        <v>5298.0018666666665</v>
       </c>
       <c r="D54">
-        <v>2.2266662188571695</v>
+        <v>2.2566669533266457</v>
       </c>
       <c r="E54">
-        <v>13558.559530987533</v>
+        <v>11955.825731169549</v>
       </c>
       <c r="F54">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55">
-        <v>6868.6513934205241</v>
+        <v>6089.1746666666668</v>
       </c>
       <c r="D55">
-        <v>2.1966670798091212</v>
+        <v>2.2266662188571695</v>
       </c>
       <c r="E55">
-        <v>15088.140398611915</v>
+        <v>13558.559530987533</v>
       </c>
       <c r="F55">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56">
-        <v>7672.1978666666664</v>
+        <v>6868.6513934205241</v>
       </c>
       <c r="D56">
-        <v>2.179999488069658</v>
+        <v>2.1966670798091212</v>
       </c>
       <c r="E56">
-        <v>16725.387421702457</v>
+        <v>15088.140398611915</v>
       </c>
       <c r="F56">
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57">
-        <v>8257.2933333333331</v>
+        <v>7672.1978666666664</v>
       </c>
       <c r="D57">
-        <v>2.1700002693219873</v>
+        <v>2.179999488069658</v>
       </c>
       <c r="E57">
-        <v>17918.328757203984</v>
+        <v>16725.387421702457</v>
       </c>
       <c r="F57">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C58">
-        <v>8985.0766666666659</v>
+        <v>8257.2933333333331</v>
       </c>
       <c r="D58">
-        <v>2.1566662826218894</v>
+        <v>2.1700002693219873</v>
       </c>
       <c r="E58">
-        <v>19377.811893772676</v>
+        <v>17918.328757203984</v>
       </c>
       <c r="F58">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
-      </c>
-      <c r="C59" s="1">
-        <v>10516.026666666667</v>
-      </c>
-      <c r="D59" s="4">
-        <v>2.0933333333333333</v>
-      </c>
-      <c r="E59" s="2">
-        <v>21999.436666666665</v>
+        <v>34</v>
+      </c>
+      <c r="C59">
+        <v>8985.0766666666659</v>
+      </c>
+      <c r="D59">
+        <v>2.1566662826218894</v>
+      </c>
+      <c r="E59">
+        <v>19377.811893772676</v>
       </c>
       <c r="F59">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="2">
-        <v>12536.269999999999</v>
+        <v>35</v>
+      </c>
+      <c r="C60" s="1">
+        <v>10516.026666666667</v>
       </c>
       <c r="D60" s="4">
-        <v>2.08</v>
+        <v>2.0933333333333333</v>
       </c>
       <c r="E60" s="2">
-        <v>26075.443333333333</v>
+        <v>21999.436666666665</v>
       </c>
       <c r="F60">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C61" s="2">
-        <v>14904.56</v>
+        <v>12536.269999999999</v>
       </c>
       <c r="D61" s="4">
-        <v>2.0933333333333333</v>
+        <v>2.08</v>
       </c>
       <c r="E61" s="2">
-        <v>31200.056666666667</v>
-      </c>
-      <c r="F61" s="4">
+        <v>26075.443333333333</v>
+      </c>
+      <c r="F61">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C62" s="2">
-        <v>18075.506666666668</v>
+        <v>14904.56</v>
       </c>
       <c r="D62" s="4">
-        <v>2.0999999999999996</v>
+        <v>2.0933333333333333</v>
       </c>
       <c r="E62" s="2">
-        <v>37964.420000000006</v>
+        <v>31200.056666666667</v>
       </c>
       <c r="F62" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C63" s="2">
-        <v>22471.69</v>
-      </c>
-      <c r="D63" s="4"/>
+        <v>18075.506666666668</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2.0999999999999996</v>
+      </c>
       <c r="E63" s="2">
-        <v>46158.41</v>
+        <v>37964.420000000006</v>
       </c>
       <c r="F63" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" s="2">
-        <v>24559.193333333333</v>
+        <v>22471.69</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="2">
-        <v>57040.05000000001</v>
+        <v>46158.41</v>
       </c>
       <c r="F64" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65">
-        <v>36662.879999999997</v>
+        <v>40</v>
+      </c>
+      <c r="C65" s="2">
+        <v>24559.193333333333</v>
       </c>
       <c r="D65" s="4"/>
-      <c r="E65">
-        <v>74303.67</v>
+      <c r="E65" s="2">
+        <v>57040.05000000001</v>
       </c>
       <c r="F65" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C66">
-        <v>54953.503333333334</v>
+        <v>36662.879999999997</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66">
-        <v>107236.54666666668</v>
+        <v>74303.67</v>
       </c>
       <c r="F66" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C67">
-        <v>89503.216666666674</v>
+        <v>54953.503333333334</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="3">
-        <v>176818.51</v>
+      <c r="E67">
+        <v>107236.54666666668</v>
       </c>
       <c r="F67" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C68">
-        <v>107771.73666666668</v>
+        <v>89503.216666666674</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="3">
-        <v>221285.44000000003</v>
+        <v>176818.51</v>
       </c>
       <c r="F68" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="6" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69">
+        <v>107771.73666666668</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="3">
+        <v>221285.44000000003</v>
+      </c>
+      <c r="F69" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="6">
-        <f>C68*1.088</f>
-        <v>117255.64949333336</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="6">
-        <f>E68*1.098</f>
-        <v>242971.41312000004</v>
-      </c>
-      <c r="F69" s="7">
+      <c r="C70" s="7">
+        <v>118023.70666666667</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70">
+        <v>244736</v>
+      </c>
+      <c r="F70" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70">
-        <v>1407.8400000000001</v>
-      </c>
-      <c r="D70">
-        <v>2.2833321826302946</v>
-      </c>
-      <c r="E70">
-        <v>3214.5663799942345</v>
-      </c>
-      <c r="F70">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71">
-        <v>1512.9333333333334</v>
-      </c>
-      <c r="D71">
-        <v>2.2566674641173012</v>
-      </c>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="7">
+        <v>123649.86</v>
+      </c>
+      <c r="D71" s="8"/>
       <c r="E71">
-        <v>3414.187428711869</v>
-      </c>
-      <c r="F71">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+        <v>261321.26</v>
+      </c>
+      <c r="F71" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C72">
-        <v>1568.0933333333332</v>
+        <v>1407.8400000000001</v>
       </c>
       <c r="D72">
-        <v>2.2566664492237973</v>
+        <v>2.2833321826302946</v>
       </c>
       <c r="E72">
-        <v>3538.6636145848415</v>
+        <v>3214.5663799942345</v>
       </c>
       <c r="F72">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C73">
-        <v>1627.8566666666666</v>
+        <v>1512.9333333333334</v>
       </c>
       <c r="D73">
-        <v>2.2699993696956229</v>
+        <v>2.2566674641173012</v>
       </c>
       <c r="E73">
-        <v>3695.2336072881508</v>
+        <v>3414.187428711869</v>
       </c>
       <c r="F73">
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C74">
-        <v>1727.4166666666667</v>
+        <v>1568.0933333333332</v>
       </c>
       <c r="D74">
-        <v>2.2933332890394675</v>
+        <v>2.2566664492237973</v>
       </c>
       <c r="E74">
-        <v>3961.5421457082603</v>
+        <v>3538.6636145848415</v>
       </c>
       <c r="F74">
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C75">
-        <v>1793.25</v>
+        <v>1627.8566666666666</v>
       </c>
       <c r="D75">
-        <v>2.2900012158288221</v>
+        <v>2.2699993696956229</v>
       </c>
       <c r="E75">
-        <v>4106.5446802850356</v>
+        <v>3695.2336072881508</v>
       </c>
       <c r="F75">
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C76">
-        <v>1888.4666666666665</v>
+        <v>1727.4166666666667</v>
       </c>
       <c r="D76">
-        <v>2.3099985723486531</v>
+        <v>2.2933332890394675</v>
       </c>
       <c r="E76">
-        <v>4362.3553039280196</v>
+        <v>3961.5421457082603</v>
       </c>
       <c r="F76">
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C77">
-        <v>2008.5233333333335</v>
+        <v>1793.25</v>
       </c>
       <c r="D77">
-        <v>2.3500034468962632</v>
+        <v>2.2900012158288221</v>
       </c>
       <c r="E77">
-        <v>4720.0367565049064</v>
+        <v>4106.5446802850356</v>
       </c>
       <c r="F77">
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C78">
-        <v>2157.0133333333338</v>
+        <v>1888.4666666666665</v>
       </c>
       <c r="D78">
-        <v>2.3633421555183585</v>
+        <v>2.3099985723486531</v>
       </c>
       <c r="E78">
-        <v>5097.7605406818402</v>
+        <v>4362.3553039280196</v>
       </c>
       <c r="F78">
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C79">
-        <v>2461.6066666666666</v>
+        <v>2008.5233333333335</v>
       </c>
       <c r="D79">
-        <v>2.3299995769133131</v>
+        <v>2.3500034468962632</v>
       </c>
       <c r="E79">
-        <v>5735.5424918603239</v>
+        <v>4720.0367565049064</v>
       </c>
       <c r="F79">
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C80">
-        <v>2886.3433333333337</v>
+        <v>2157.0133333333338</v>
       </c>
       <c r="D80">
-        <v>2.3333339254255949</v>
+        <v>2.3633421555183585</v>
       </c>
       <c r="E80">
-        <v>6734.8028200926638</v>
+        <v>5097.7605406818402</v>
       </c>
       <c r="F80">
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C81">
-        <v>3188.4933333333333</v>
+        <v>2461.6066666666666</v>
       </c>
       <c r="D81">
-        <v>2.3266660818220526</v>
+        <v>2.3299995769133131</v>
       </c>
       <c r="E81">
-        <v>7418.559290782403</v>
+        <v>5735.5424918603239</v>
       </c>
       <c r="F81">
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C82">
-        <v>3471.27</v>
+        <v>2886.3433333333337</v>
       </c>
       <c r="D82">
-        <v>2.3466665542640235</v>
+        <v>2.3333339254255949</v>
       </c>
       <c r="E82">
-        <v>8145.9132098200771</v>
+        <v>6734.8028200926638</v>
       </c>
       <c r="F82">
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C83">
-        <v>3852.9933333333333</v>
+        <v>3188.4933333333333</v>
       </c>
       <c r="D83">
-        <v>2.3366669772453887</v>
+        <v>2.3266660818220526</v>
       </c>
       <c r="E83">
-        <v>9003.1622855466339</v>
+        <v>7418.559290782403</v>
       </c>
       <c r="F83">
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C84">
-        <v>4349.9033333333327</v>
+        <v>3471.27</v>
       </c>
       <c r="D84">
-        <v>2.3399994490907887</v>
+        <v>2.3466665542640235</v>
       </c>
       <c r="E84">
-        <v>10178.771403598184</v>
+        <v>8145.9132098200771</v>
       </c>
       <c r="F84">
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C85">
-        <v>4892.8066666666664</v>
+        <v>3852.9933333333333</v>
       </c>
       <c r="D85">
-        <v>2.2766666253681076</v>
+        <v>2.3366669772453887</v>
       </c>
       <c r="E85">
-        <v>11139.289642378579</v>
+        <v>9003.1622855466339</v>
       </c>
       <c r="F85">
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C86">
-        <v>5170.1899999999996</v>
+        <v>4349.9033333333327</v>
       </c>
       <c r="D86">
-        <v>2.2533331776220744</v>
+        <v>2.3399994490907887</v>
       </c>
       <c r="E86">
-        <v>11650.160661609872</v>
+        <v>10178.771403598184</v>
       </c>
       <c r="F86">
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C87">
-        <v>5451.6652066666675</v>
+        <v>4892.8066666666664</v>
       </c>
       <c r="D87">
-        <v>2.2766672054388875</v>
+        <v>2.2766666253681076</v>
       </c>
       <c r="E87">
-        <v>12411.627391050217</v>
+        <v>11139.289642378579</v>
       </c>
       <c r="F87">
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C88">
-        <v>6276.4901800000007</v>
+        <v>5170.1899999999996</v>
       </c>
       <c r="D88">
-        <v>2.2466674811371856</v>
+        <v>2.2533331776220744</v>
       </c>
       <c r="E88">
-        <v>14101.186383082882</v>
+        <v>11650.160661609872</v>
       </c>
       <c r="F88">
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C89">
-        <v>7168.8280198293405</v>
+        <v>5451.6652066666675</v>
       </c>
       <c r="D89">
-        <v>2.216666397532395</v>
+        <v>2.2766672054388875</v>
       </c>
       <c r="E89">
-        <v>15890.900181244397</v>
+        <v>12411.627391050217</v>
       </c>
       <c r="F89">
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C90">
-        <v>7976.9998533333337</v>
+        <v>6276.4901800000007</v>
       </c>
       <c r="D90">
-        <v>2.2000000154222241</v>
+        <v>2.2466674811371856</v>
       </c>
       <c r="E90">
-        <v>17549.399800356412</v>
+        <v>14101.186383082882</v>
       </c>
       <c r="F90">
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C91">
-        <v>8543.8566666666684</v>
+        <v>7168.8280198293405</v>
       </c>
       <c r="D91">
-        <v>2.1900001031151501</v>
+        <v>2.216666397532395</v>
       </c>
       <c r="E91">
-        <v>18711.046981001065</v>
+        <v>15890.900181244397</v>
       </c>
       <c r="F91">
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C92">
-        <v>9312.753333333334</v>
+        <v>7976.9998533333337</v>
       </c>
       <c r="D92">
-        <v>2.1766667307693508</v>
+        <v>2.2000000154222241</v>
       </c>
       <c r="E92">
-        <v>20270.760352528043</v>
+        <v>17549.399800356412</v>
       </c>
       <c r="F92">
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C93">
-        <v>10923.403333333334</v>
-      </c>
-      <c r="D93" s="4">
-        <v>2.1133333333333333</v>
-      </c>
-      <c r="E93" s="2">
-        <v>23070.036666666667</v>
+        <v>8543.8566666666684</v>
+      </c>
+      <c r="D93">
+        <v>2.1900001031151501</v>
+      </c>
+      <c r="E93">
+        <v>18711.046981001065</v>
       </c>
       <c r="F93">
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C94">
-        <v>12996</v>
-      </c>
-      <c r="D94" s="4">
-        <v>2.0966666666666662</v>
-      </c>
-      <c r="E94" s="2">
-        <v>27250.273333333334</v>
+        <v>9312.753333333334</v>
+      </c>
+      <c r="D94">
+        <v>2.1766667307693508</v>
+      </c>
+      <c r="E94">
+        <v>20270.760352528043</v>
       </c>
       <c r="F94">
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C95">
-        <v>15461.386666666667</v>
+        <v>10923.403333333334</v>
       </c>
       <c r="D95" s="4">
-        <v>2.11</v>
+        <v>2.1133333333333333</v>
       </c>
       <c r="E95" s="2">
-        <v>32623.526666666668</v>
-      </c>
-      <c r="F95" s="4">
+        <v>23070.036666666667</v>
+      </c>
+      <c r="F95">
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C96">
-        <v>18688.276666666668</v>
+        <v>12996</v>
       </c>
       <c r="D96" s="4">
-        <v>2.12</v>
+        <v>2.0966666666666662</v>
       </c>
       <c r="E96" s="2">
-        <v>39625.136666666665</v>
-      </c>
-      <c r="F96" s="4">
+        <v>27250.273333333334</v>
+      </c>
+      <c r="F96">
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C97">
-        <v>23273.386666666669</v>
-      </c>
-      <c r="D97" s="4"/>
+        <v>15461.386666666667</v>
+      </c>
+      <c r="D97" s="4">
+        <v>2.11</v>
+      </c>
       <c r="E97" s="2">
-        <v>48191.623333333329</v>
+        <v>32623.526666666668</v>
       </c>
       <c r="F97" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C98">
-        <v>25378.636666666669</v>
-      </c>
-      <c r="D98" s="4"/>
+        <v>18688.276666666668</v>
+      </c>
+      <c r="D98" s="4">
+        <v>2.12</v>
+      </c>
       <c r="E98" s="2">
-        <v>59127.903333333328</v>
+        <v>39625.136666666665</v>
       </c>
       <c r="F98" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C99">
-        <v>37898.576666666668</v>
+        <v>23273.386666666669</v>
       </c>
       <c r="D99" s="4"/>
-      <c r="E99">
-        <v>77564.396666666667</v>
+      <c r="E99" s="2">
+        <v>48191.623333333329</v>
       </c>
       <c r="F99" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C100">
-        <v>57053.06</v>
+        <v>25378.636666666669</v>
       </c>
       <c r="D100" s="4"/>
-      <c r="E100">
-        <v>112238.09333333334</v>
+      <c r="E100" s="2">
+        <v>59127.903333333328</v>
       </c>
       <c r="F100" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C101">
-        <v>92941.88</v>
+        <v>37898.576666666668</v>
       </c>
       <c r="D101" s="4"/>
-      <c r="E101" s="3">
-        <v>185468.55333333334</v>
+      <c r="E101">
+        <v>77564.396666666667</v>
       </c>
       <c r="F101" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C102">
-        <v>110188.70666666667</v>
+        <v>57053.06</v>
       </c>
       <c r="D102" s="4"/>
-      <c r="E102" s="3">
-        <v>228096.34666666668</v>
+      <c r="E102">
+        <v>112238.09333333334</v>
       </c>
       <c r="F102" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="6" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>8</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103">
+        <v>92941.88</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="3">
+        <v>185468.55333333334</v>
+      </c>
+      <c r="F103" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104">
+        <v>110188.70666666667</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="3">
+        <v>228096.34666666668</v>
+      </c>
+      <c r="F104" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="6">
-        <f>C102*1.088</f>
-        <v>119885.31285333334</v>
-      </c>
-      <c r="D103" s="7"/>
-      <c r="E103" s="6">
-        <f>E102*1.098</f>
-        <v>250449.78864000004</v>
-      </c>
-      <c r="F103" s="7">
+      <c r="C105" s="7">
+        <v>120881.82666666666</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105">
+        <v>252282.69666666666</v>
+      </c>
+      <c r="F105" s="8">
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" t="s">
-        <v>12</v>
-      </c>
-      <c r="C104">
-        <v>1400.57</v>
-      </c>
-      <c r="D104">
-        <v>2.5966733148417425</v>
-      </c>
-      <c r="E104">
-        <v>3636.822744567899</v>
-      </c>
-      <c r="F104">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" t="s">
-        <v>13</v>
-      </c>
-      <c r="C105">
-        <v>1508.8066666666666</v>
-      </c>
-      <c r="D105">
-        <v>2.5666657715613712</v>
-      </c>
-      <c r="E105">
-        <v>3872.6024272369405</v>
-      </c>
-      <c r="F105">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>7</v>
-      </c>
-      <c r="B106" t="s">
-        <v>14</v>
-      </c>
-      <c r="C106">
-        <v>1570.2966666666669</v>
-      </c>
-      <c r="D106">
-        <v>2.5666686548477995</v>
-      </c>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" s="7">
+        <v>126651.40000000001</v>
+      </c>
+      <c r="D106" s="8"/>
       <c r="E106">
-        <v>4030.431233145317</v>
-      </c>
-      <c r="F106">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+        <v>270200.16666666669</v>
+      </c>
+      <c r="F106" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C107">
-        <v>1635.08</v>
+        <v>1400.57</v>
       </c>
       <c r="D107">
-        <v>2.5799999388042107</v>
+        <v>2.5966733148417425</v>
       </c>
       <c r="E107">
-        <v>4218.5062999399888</v>
+        <v>3636.822744567899</v>
       </c>
       <c r="F107">
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C108">
-        <v>1731.1866666666667</v>
+        <v>1508.8066666666666</v>
       </c>
       <c r="D108">
-        <v>2.6066681174319641</v>
+        <v>2.5666657715613712</v>
       </c>
       <c r="E108">
-        <v>4512.6290893233172</v>
+        <v>3872.6024272369405</v>
       </c>
       <c r="F108">
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C109">
-        <v>1801.53</v>
+        <v>1570.2966666666669</v>
       </c>
       <c r="D109">
-        <v>2.6033329214817233</v>
+        <v>2.5666686548477995</v>
       </c>
       <c r="E109">
-        <v>4689.9823580369693</v>
+        <v>4030.431233145317</v>
       </c>
       <c r="F109">
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C110">
-        <v>1893.9233333333334</v>
+        <v>1635.08</v>
       </c>
       <c r="D110">
-        <v>2.6266674956991776</v>
+        <v>2.5799999388042107</v>
       </c>
       <c r="E110">
-        <v>4974.7068590129056</v>
+        <v>4218.5062999399888</v>
       </c>
       <c r="F110">
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C111">
-        <v>2012.5466666666669</v>
+        <v>1731.1866666666667</v>
       </c>
       <c r="D111">
-        <v>2.6700024162823546</v>
+        <v>2.6066681174319641</v>
       </c>
       <c r="E111">
-        <v>5373.5044628809992</v>
+        <v>4512.6290893233172</v>
       </c>
       <c r="F111">
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C112">
-        <v>2157.92</v>
+        <v>1801.53</v>
       </c>
       <c r="D112">
-        <v>2.6866742418763372</v>
+        <v>2.6033329214817233</v>
       </c>
       <c r="E112">
-        <v>5797.6280800297855</v>
+        <v>4689.9823580369693</v>
       </c>
       <c r="F112">
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C113">
-        <v>2466.96</v>
+        <v>1893.9233333333334</v>
       </c>
       <c r="D113">
-        <v>2.6499998327711922</v>
+        <v>2.6266674956991776</v>
       </c>
       <c r="E113">
-        <v>6537.4435874532201</v>
+        <v>4974.7068590129056</v>
       </c>
       <c r="F113">
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C114">
-        <v>2899.1333333333332</v>
+        <v>2012.5466666666669</v>
       </c>
       <c r="D114">
-        <v>2.6533336955126416</v>
+        <v>2.6700024162823546</v>
       </c>
       <c r="E114">
-        <v>7692.368161117216</v>
+        <v>5373.5044628809992</v>
       </c>
       <c r="F114">
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C115">
-        <v>3196.6433333333334</v>
+        <v>2157.92</v>
       </c>
       <c r="D115">
-        <v>2.6433327968923117</v>
+        <v>2.6866742418763372</v>
       </c>
       <c r="E115">
-        <v>8449.7921629671619</v>
+        <v>5797.6280800297855</v>
       </c>
       <c r="F115">
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C116">
-        <v>3472.4866666666662</v>
+        <v>2466.96</v>
       </c>
       <c r="D116">
-        <v>2.6700002762418342</v>
+        <v>2.6499998327711922</v>
       </c>
       <c r="E116">
-        <v>9271.5403592460843</v>
+        <v>6537.4435874532201</v>
       </c>
       <c r="F116">
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C117">
-        <v>3831.7866666666669</v>
+        <v>2899.1333333333332</v>
       </c>
       <c r="D117">
-        <v>2.6566673875631923</v>
+        <v>2.6533336955126416</v>
       </c>
       <c r="E117">
-        <v>10179.782673432806</v>
+        <v>7692.368161117216</v>
       </c>
       <c r="F117">
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C118">
-        <v>4323.5366666666669</v>
+        <v>3196.6433333333334</v>
       </c>
       <c r="D118">
-        <v>2.6599993192252773</v>
+        <v>2.6433327968923117</v>
       </c>
       <c r="E118">
-        <v>11500.604589978859</v>
+        <v>8449.7921629671619</v>
       </c>
       <c r="F118">
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C119">
-        <v>4860.63</v>
+        <v>3472.4866666666662</v>
       </c>
       <c r="D119">
-        <v>2.5866660114011504</v>
+        <v>2.6700002762418342</v>
       </c>
       <c r="E119">
-        <v>12572.826414996774</v>
+        <v>9271.5403592460843</v>
       </c>
       <c r="F119">
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C120">
-        <v>5133.5566666666664</v>
+        <v>3831.7866666666669</v>
       </c>
       <c r="D120">
-        <v>2.5633337815648347</v>
+        <v>2.6566673875631923</v>
       </c>
       <c r="E120">
-        <v>13159.019223244033</v>
+        <v>10179.782673432806</v>
       </c>
       <c r="F120">
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C121">
-        <v>5388.8293366666667</v>
+        <v>4323.5366666666669</v>
       </c>
       <c r="D121">
-        <v>2.5866669444157488</v>
+        <v>2.6599993192252773</v>
       </c>
       <c r="E121">
-        <v>13939.106714253514</v>
+        <v>11500.604589978859</v>
       </c>
       <c r="F121">
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C122">
-        <v>6226.3025966666655</v>
+        <v>4860.63</v>
       </c>
       <c r="D122">
-        <v>2.5533339607326675</v>
+        <v>2.5866660114011504</v>
       </c>
       <c r="E122">
-        <v>15897.82986986699</v>
+        <v>12572.826414996774</v>
       </c>
       <c r="F122">
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C123">
-        <v>7053.956094359557</v>
+        <v>5133.5566666666664</v>
       </c>
       <c r="D123">
-        <v>2.5199989179647209</v>
+        <v>2.5633337815648347</v>
       </c>
       <c r="E123">
-        <v>17775.961725156732</v>
+        <v>13159.019223244033</v>
       </c>
       <c r="F123">
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C124">
-        <v>7827.2819266666665</v>
+        <v>5388.8293366666667</v>
       </c>
       <c r="D124">
-        <v>2.4999995599835159</v>
+        <v>2.5866669444157488</v>
       </c>
       <c r="E124">
-        <v>19568.201372533593</v>
+        <v>13939.106714253514</v>
       </c>
       <c r="F124">
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C125">
-        <v>8434.4466666666685</v>
+        <v>6226.3025966666655</v>
       </c>
       <c r="D125">
-        <v>2.4900002862288546</v>
+        <v>2.5533339607326675</v>
       </c>
       <c r="E125">
-        <v>21001.774614182013</v>
+        <v>15897.82986986699</v>
       </c>
       <c r="F125">
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C126">
-        <v>9203.9533333333329</v>
+        <v>7053.956094359557</v>
       </c>
       <c r="D126">
-        <v>2.4766663032144218</v>
+        <v>2.5199989179647209</v>
       </c>
       <c r="E126">
-        <v>22795.12107702472</v>
+        <v>17775.961725156732</v>
       </c>
       <c r="F126">
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C127">
-        <v>10803.103333333333</v>
-      </c>
-      <c r="D127" s="4">
-        <v>2.4033333333333338</v>
-      </c>
-      <c r="E127" s="2">
-        <v>25948.593333333334</v>
+        <v>7827.2819266666665</v>
+      </c>
+      <c r="D127">
+        <v>2.4999995599835159</v>
+      </c>
+      <c r="E127">
+        <v>19568.201372533593</v>
       </c>
       <c r="F127">
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C128">
-        <v>12850.676666666666</v>
-      </c>
-      <c r="D128" s="4">
-        <v>2.3866666666666667</v>
-      </c>
-      <c r="E128" s="2">
-        <v>30672.233333333334</v>
+        <v>8434.4466666666685</v>
+      </c>
+      <c r="D128">
+        <v>2.4900002862288546</v>
+      </c>
+      <c r="E128">
+        <v>21001.774614182013</v>
       </c>
       <c r="F128">
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C129">
-        <v>15317.913333333332</v>
-      </c>
-      <c r="D129" s="4">
-        <v>2.4033333333333338</v>
-      </c>
-      <c r="E129" s="2">
-        <v>36813.920000000006</v>
-      </c>
-      <c r="F129" s="4">
+        <v>9203.9533333333329</v>
+      </c>
+      <c r="D129">
+        <v>2.4766663032144218</v>
+      </c>
+      <c r="E129">
+        <v>22795.12107702472</v>
+      </c>
+      <c r="F129">
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C130">
-        <v>18596.316666666666</v>
+        <v>10803.103333333333</v>
       </c>
       <c r="D130" s="4">
-        <v>2.4133333333333336</v>
+        <v>2.4033333333333338</v>
       </c>
       <c r="E130" s="2">
-        <v>44885.636666666665</v>
-      </c>
-      <c r="F130" s="4">
+        <v>25948.593333333334</v>
+      </c>
+      <c r="F130">
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C131">
-        <v>23213.03</v>
-      </c>
-      <c r="D131" s="4"/>
+        <v>12850.676666666666</v>
+      </c>
+      <c r="D131" s="4">
+        <v>2.3866666666666667</v>
+      </c>
       <c r="E131" s="2">
-        <v>54716.480000000003</v>
-      </c>
-      <c r="F131" s="4">
+        <v>30672.233333333334</v>
+      </c>
+      <c r="F131">
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C132">
-        <v>25322.183333333331</v>
-      </c>
-      <c r="D132" s="4"/>
+        <v>15317.913333333332</v>
+      </c>
+      <c r="D132" s="4">
+        <v>2.4033333333333338</v>
+      </c>
       <c r="E132" s="2">
-        <v>67447.150000000009</v>
+        <v>36813.920000000006</v>
       </c>
       <c r="F132" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C133">
-        <v>37817.450000000004</v>
-      </c>
-      <c r="D133" s="4"/>
-      <c r="E133">
-        <v>88100.176666666681</v>
+        <v>18596.316666666666</v>
+      </c>
+      <c r="D133" s="4">
+        <v>2.4133333333333336</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44885.636666666665</v>
       </c>
       <c r="F133" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C134">
-        <v>56707.15</v>
+        <v>23213.03</v>
       </c>
       <c r="D134" s="4"/>
-      <c r="E134">
-        <v>126876.38666666666</v>
+      <c r="E134" s="2">
+        <v>54716.480000000003</v>
       </c>
       <c r="F134" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C135">
-        <v>92067.986666666679</v>
+        <v>25322.183333333331</v>
       </c>
       <c r="D135" s="4"/>
-      <c r="E135" s="3">
-        <v>208924.72666666665</v>
+      <c r="E135" s="2">
+        <v>67447.150000000009</v>
       </c>
       <c r="F135" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C136">
-        <v>110381.49333333333</v>
+        <v>37817.450000000004</v>
       </c>
       <c r="D136" s="4"/>
-      <c r="E136" s="3">
-        <v>260134.81999999998</v>
+      <c r="E136">
+        <v>88100.176666666681</v>
       </c>
       <c r="F136" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>48</v>
-      </c>
-      <c r="C137" s="6">
-        <f>C136*1.088</f>
-        <v>120095.06474666667</v>
-      </c>
-      <c r="D137" s="7"/>
-      <c r="E137" s="6">
-        <f>E136*1.098</f>
-        <v>285628.03236000001</v>
+        <v>42</v>
+      </c>
+      <c r="C137">
+        <v>56707.15</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137">
+        <v>126876.38666666666</v>
       </c>
       <c r="F137" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C138">
-        <v>1564.0133333333333</v>
-      </c>
-      <c r="D138">
-        <v>2.4366676223869419</v>
-      </c>
-      <c r="E138">
-        <v>3810.9806503148088</v>
-      </c>
-      <c r="F138">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+        <v>92067.986666666679</v>
+      </c>
+      <c r="D138" s="4"/>
+      <c r="E138" s="3">
+        <v>208924.72666666665</v>
+      </c>
+      <c r="F138" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C139">
-        <v>1676.1633333333332</v>
-      </c>
-      <c r="D139">
-        <v>2.4066673527145386</v>
-      </c>
-      <c r="E139">
-        <v>4033.9675721505096</v>
-      </c>
-      <c r="F139">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>10</v>
-      </c>
-      <c r="B140" t="s">
-        <v>14</v>
-      </c>
-      <c r="C140">
-        <v>1746.3966666666665</v>
-      </c>
-      <c r="D140">
-        <v>2.4099984879390788</v>
-      </c>
+        <v>110381.49333333333</v>
+      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="3">
+        <v>260134.81999999998</v>
+      </c>
+      <c r="F139" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C140" s="7">
+        <v>120706.45666666667</v>
+      </c>
+      <c r="D140" s="8"/>
       <c r="E140">
-        <v>4208.8133260085133</v>
-      </c>
-      <c r="F140">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>10</v>
-      </c>
-      <c r="B141" t="s">
-        <v>15</v>
-      </c>
-      <c r="C141">
-        <v>1816.9966666666667</v>
-      </c>
-      <c r="D141">
-        <v>2.4233344640394328</v>
-      </c>
+        <v>286923.3833333333</v>
+      </c>
+      <c r="F140" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C141" s="7">
+        <v>127026.26666666668</v>
+      </c>
+      <c r="D141" s="8"/>
       <c r="E141">
-        <v>4403.1906433781023</v>
-      </c>
-      <c r="F141">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+        <v>307837.11666666664</v>
+      </c>
+      <c r="F141" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C142">
-        <v>1921.3133333333333</v>
+        <v>1564.0133333333333</v>
       </c>
       <c r="D142">
-        <v>2.4466664247817951</v>
+        <v>2.4366676223869419</v>
       </c>
       <c r="E142">
-        <v>4700.81282415226</v>
+        <v>3810.9806503148088</v>
       </c>
       <c r="F142">
         <v>43</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C143">
-        <v>2003.6533333333334</v>
+        <v>1676.1633333333332</v>
       </c>
       <c r="D143">
-        <v>2.4433343273631092</v>
+        <v>2.4066673527145386</v>
       </c>
       <c r="E143">
-        <v>4895.5949694688516</v>
+        <v>4033.9675721505096</v>
       </c>
       <c r="F143">
         <v>43</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C144">
-        <v>2109.9066666666668</v>
+        <v>1746.3966666666665</v>
       </c>
       <c r="D144">
-        <v>2.4633329259034547</v>
+        <v>2.4099984879390788</v>
       </c>
       <c r="E144">
-        <v>5197.4025625832055</v>
+        <v>4208.8133260085133</v>
       </c>
       <c r="F144">
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C145">
-        <v>2240.1866666666665</v>
+        <v>1816.9966666666667</v>
       </c>
       <c r="D145">
-        <v>2.5100036204837166</v>
+        <v>2.4233344640394328</v>
       </c>
       <c r="E145">
-        <v>5622.8766438926814</v>
+        <v>4403.1906433781023</v>
       </c>
       <c r="F145">
         <v>43</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C146">
-        <v>2394.2533333333331</v>
+        <v>1921.3133333333333</v>
       </c>
       <c r="D146">
-        <v>2.5266708435762499</v>
+        <v>2.4466664247817951</v>
       </c>
       <c r="E146">
-        <v>6049.4900894685807</v>
+        <v>4700.81282415226</v>
       </c>
       <c r="F146">
         <v>43</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C147">
-        <v>2730.5866666666666</v>
+        <v>2003.6533333333334</v>
       </c>
       <c r="D147">
-        <v>2.4900007422966781</v>
+        <v>2.4433343273631092</v>
       </c>
       <c r="E147">
-        <v>6799.1628269054117</v>
+        <v>4895.5949694688516</v>
       </c>
       <c r="F147">
         <v>43</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C148">
-        <v>3212.4866666666662</v>
+        <v>2109.9066666666668</v>
       </c>
       <c r="D148">
-        <v>2.4933332029753319</v>
+        <v>2.4633329259034547</v>
       </c>
       <c r="E148">
-        <v>8009.7996701155462</v>
+        <v>5197.4025625832055</v>
       </c>
       <c r="F148">
         <v>43</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C149">
-        <v>3560.3866666666668</v>
+        <v>2240.1866666666665</v>
       </c>
       <c r="D149">
-        <v>2.4833333559555002</v>
+        <v>2.5100036204837166</v>
       </c>
       <c r="E149">
-        <v>8841.626969432551</v>
+        <v>5622.8766438926814</v>
       </c>
       <c r="F149">
         <v>43</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C150">
-        <v>3867.103333333333</v>
+        <v>2394.2533333333331</v>
       </c>
       <c r="D150">
-        <v>2.503333301435549</v>
+        <v>2.5266708435762499</v>
       </c>
       <c r="E150">
-        <v>9680.6485544257484</v>
+        <v>6049.4900894685807</v>
       </c>
       <c r="F150">
         <v>43</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C151">
-        <v>4256.2033333333338</v>
+        <v>2730.5866666666666</v>
       </c>
       <c r="D151">
-        <v>2.4966666273255518</v>
+        <v>2.4900007422966781</v>
       </c>
       <c r="E151">
-        <v>10626.320821445106</v>
+        <v>6799.1628269054117</v>
       </c>
       <c r="F151">
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C152">
-        <v>4803.0733333333337</v>
+        <v>3212.4866666666662</v>
       </c>
       <c r="D152">
-        <v>2.4966665201374028</v>
+        <v>2.4933332029753319</v>
       </c>
       <c r="E152">
-        <v>11991.672385098091</v>
+        <v>8009.7996701155462</v>
       </c>
       <c r="F152">
         <v>43</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C153">
-        <v>5417.2533333333331</v>
+        <v>3560.3866666666668</v>
       </c>
       <c r="D153">
-        <v>2.4333331061233863</v>
+        <v>2.4833333559555002</v>
       </c>
       <c r="E153">
-        <v>13181.981880257268</v>
+        <v>8841.626969432551</v>
       </c>
       <c r="F153">
         <v>43</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C154">
-        <v>5727.3433333333332</v>
+        <v>3867.103333333333</v>
       </c>
       <c r="D154">
-        <v>2.4066672606284101</v>
+        <v>2.503333301435549</v>
       </c>
       <c r="E154">
-        <v>13783.80969071172</v>
+        <v>9680.6485544257484</v>
       </c>
       <c r="F154">
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C155">
-        <v>6011.6154133333303</v>
+        <v>4256.2033333333338</v>
       </c>
       <c r="D155">
-        <v>2.4266666277203699</v>
+        <v>2.4966666273255518</v>
       </c>
       <c r="E155">
-        <v>14588.18650222539</v>
+        <v>10626.320821445106</v>
       </c>
       <c r="F155">
         <v>43</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C156">
-        <v>6958.7274666666635</v>
+        <v>4803.0733333333337</v>
       </c>
       <c r="D156">
-        <v>2.4000008615090231</v>
+        <v>2.4966665201374028</v>
       </c>
       <c r="E156">
-        <v>16700.951915006495</v>
+        <v>11991.672385098091</v>
       </c>
       <c r="F156">
         <v>43</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C157">
-        <v>7893.0630578679438</v>
+        <v>5417.2533333333331</v>
       </c>
       <c r="D157">
-        <v>2.3700001537436224</v>
+        <v>2.4333331061233863</v>
       </c>
       <c r="E157">
-        <v>18706.560660655134</v>
+        <v>13181.981880257268</v>
       </c>
       <c r="F157">
         <v>43</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C158">
-        <v>8741.9938133333326</v>
+        <v>5727.3433333333332</v>
       </c>
       <c r="D158">
-        <v>2.3500000317922503</v>
+        <v>2.4066672606284101</v>
       </c>
       <c r="E158">
-        <v>20543.685739260985</v>
+        <v>13783.80969071172</v>
       </c>
       <c r="F158">
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C159">
-        <v>9397.5166666666646</v>
+        <v>6011.6154133333303</v>
       </c>
       <c r="D159">
-        <v>2.3333331497145107</v>
+        <v>2.4266666277203699</v>
       </c>
       <c r="E159">
-        <v>21927.537163327939</v>
+        <v>14588.18650222539</v>
       </c>
       <c r="F159">
         <v>43</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C160">
-        <v>10231.09</v>
+        <v>6958.7274666666635</v>
       </c>
       <c r="D160">
-        <v>2.3266664939799031</v>
+        <v>2.4000008615090231</v>
       </c>
       <c r="E160">
-        <v>23804.334299892846</v>
+        <v>16700.951915006495</v>
       </c>
       <c r="F160">
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>35</v>
-      </c>
-      <c r="C161" s="1">
-        <v>12003.11</v>
-      </c>
-      <c r="D161" s="4">
-        <v>2.2566666666666664</v>
-      </c>
-      <c r="E161" s="2">
-        <v>27073.839999999997</v>
+        <v>31</v>
+      </c>
+      <c r="C161">
+        <v>7893.0630578679438</v>
+      </c>
+      <c r="D161">
+        <v>2.3700001537436224</v>
+      </c>
+      <c r="E161">
+        <v>18706.560660655134</v>
       </c>
       <c r="F161">
         <v>43</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>36</v>
-      </c>
-      <c r="C162" s="2">
-        <v>14256.4</v>
-      </c>
-      <c r="D162" s="4">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="E162" s="2">
-        <v>31934.33666666667</v>
+        <v>32</v>
+      </c>
+      <c r="C162">
+        <v>8741.9938133333326</v>
+      </c>
+      <c r="D162">
+        <v>2.3500000317922503</v>
+      </c>
+      <c r="E162">
+        <v>20543.685739260985</v>
       </c>
       <c r="F162">
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>10</v>
       </c>
       <c r="B163" t="s">
-        <v>37</v>
-      </c>
-      <c r="C163" s="2">
-        <v>16967.316666666666</v>
-      </c>
-      <c r="D163" s="4">
-        <v>2.2566666666666664</v>
-      </c>
-      <c r="E163" s="2">
-        <v>38293.47</v>
-      </c>
-      <c r="F163" s="4">
+        <v>33</v>
+      </c>
+      <c r="C163">
+        <v>9397.5166666666646</v>
+      </c>
+      <c r="D163">
+        <v>2.3333331497145107</v>
+      </c>
+      <c r="E163">
+        <v>21927.537163327939</v>
+      </c>
+      <c r="F163">
         <v>43</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>38</v>
-      </c>
-      <c r="C164" s="2">
-        <v>20639.343333333334</v>
-      </c>
-      <c r="D164" s="4">
-        <v>2.2633333333333332</v>
-      </c>
-      <c r="E164" s="2">
-        <v>46720.946666666663</v>
-      </c>
-      <c r="F164" s="4">
+        <v>34</v>
+      </c>
+      <c r="C164">
+        <v>10231.09</v>
+      </c>
+      <c r="D164">
+        <v>2.3266664939799031</v>
+      </c>
+      <c r="E164">
+        <v>23804.334299892846</v>
+      </c>
+      <c r="F164">
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>10</v>
       </c>
       <c r="B165" t="s">
-        <v>39</v>
-      </c>
-      <c r="C165" s="2">
-        <v>25719.103333333333</v>
-      </c>
-      <c r="D165" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C165" s="1">
+        <v>12003.11</v>
+      </c>
+      <c r="D165" s="4">
+        <v>2.2566666666666664</v>
+      </c>
       <c r="E165" s="2">
-        <v>56860.359999999993</v>
-      </c>
-      <c r="F165" s="4">
+        <v>27073.839999999997</v>
+      </c>
+      <c r="F165">
         <v>43</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C166" s="2">
-        <v>28016.406666666666</v>
-      </c>
-      <c r="D166" s="4"/>
+        <v>14256.4</v>
+      </c>
+      <c r="D166" s="4">
+        <v>2.2400000000000002</v>
+      </c>
       <c r="E166" s="2">
-        <v>69829.633333333331</v>
-      </c>
-      <c r="F166" s="4">
+        <v>31934.33666666667</v>
+      </c>
+      <c r="F166">
         <v>43</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>41</v>
-      </c>
-      <c r="C167">
-        <v>41554.9</v>
-      </c>
-      <c r="D167" s="4"/>
-      <c r="E167">
-        <v>90869.83666666667</v>
+        <v>37</v>
+      </c>
+      <c r="C167" s="2">
+        <v>16967.316666666666</v>
+      </c>
+      <c r="D167" s="4">
+        <v>2.2566666666666664</v>
+      </c>
+      <c r="E167" s="2">
+        <v>38293.47</v>
       </c>
       <c r="F167" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>42</v>
-      </c>
-      <c r="C168">
-        <v>62527.626666666671</v>
-      </c>
-      <c r="D168" s="4"/>
-      <c r="E168">
-        <v>131138.85666666666</v>
+        <v>38</v>
+      </c>
+      <c r="C168" s="2">
+        <v>20639.343333333334</v>
+      </c>
+      <c r="D168" s="4">
+        <v>2.2633333333333332</v>
+      </c>
+      <c r="E168" s="2">
+        <v>46720.946666666663</v>
       </c>
       <c r="F168" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>46</v>
-      </c>
-      <c r="C169">
-        <v>102552.28333333333</v>
+        <v>39</v>
+      </c>
+      <c r="C169" s="2">
+        <v>25719.103333333333</v>
       </c>
       <c r="D169" s="4"/>
-      <c r="E169" s="3">
-        <v>218701.44333333333</v>
+      <c r="E169" s="2">
+        <v>56860.359999999993</v>
       </c>
       <c r="F169" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>10</v>
       </c>
       <c r="B170" t="s">
-        <v>47</v>
-      </c>
-      <c r="C170">
-        <v>122807.25333333334</v>
+        <v>40</v>
+      </c>
+      <c r="C170" s="2">
+        <v>28016.406666666666</v>
       </c>
       <c r="D170" s="4"/>
-      <c r="E170" s="3">
-        <v>270997.41333333333</v>
+      <c r="E170" s="2">
+        <v>69829.633333333331</v>
       </c>
       <c r="F170" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>48</v>
-      </c>
-      <c r="C171" s="6">
-        <f>C170*1.088</f>
-        <v>133614.29162666667</v>
-      </c>
-      <c r="D171" s="7"/>
-      <c r="E171" s="6">
-        <f>E170*1.098</f>
-        <v>297555.15984000004</v>
+        <v>41</v>
+      </c>
+      <c r="C171">
+        <v>41554.9</v>
+      </c>
+      <c r="D171" s="4"/>
+      <c r="E171">
+        <v>90869.83666666667</v>
       </c>
       <c r="F171" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C172">
-        <v>1607.5600000000002</v>
-      </c>
-      <c r="D172">
-        <v>2.7666650902447016</v>
-      </c>
+        <v>62527.626666666671</v>
+      </c>
+      <c r="D172" s="4"/>
       <c r="E172">
-        <v>4447.5801324737731</v>
-      </c>
-      <c r="F172">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+        <v>131138.85666666666</v>
+      </c>
+      <c r="F172" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C173">
-        <v>1735.14</v>
-      </c>
-      <c r="D173">
-        <v>2.7333331849172779</v>
-      </c>
-      <c r="E173">
-        <v>4742.7157424773659</v>
-      </c>
-      <c r="F173">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+        <v>102552.28333333333</v>
+      </c>
+      <c r="D173" s="4"/>
+      <c r="E173" s="3">
+        <v>218701.44333333333</v>
+      </c>
+      <c r="F173" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B174" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C174">
-        <v>1813.3466666666666</v>
-      </c>
-      <c r="D174">
-        <v>2.7366679224228307</v>
-      </c>
-      <c r="E174">
-        <v>4962.5276548990314</v>
-      </c>
-      <c r="F174">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+        <v>122807.25333333334</v>
+      </c>
+      <c r="D174" s="4"/>
+      <c r="E174" s="3">
+        <v>270997.41333333333</v>
+      </c>
+      <c r="F174" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
-      </c>
-      <c r="C175">
-        <v>1890.2266666666667</v>
-      </c>
-      <c r="D175">
-        <v>2.7500001416616198</v>
-      </c>
-      <c r="E175">
-        <v>5198.1236011059045</v>
-      </c>
-      <c r="F175">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="C175" s="7">
+        <v>133886.93666666668</v>
+      </c>
+      <c r="D175" s="8"/>
+      <c r="E175" s="7">
+        <v>299050.19</v>
+      </c>
+      <c r="F175" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B176" t="s">
-        <v>16</v>
-      </c>
-      <c r="C176">
-        <v>1994.2466666666667</v>
-      </c>
-      <c r="D176">
-        <v>2.78333191269029</v>
-      </c>
-      <c r="E176">
-        <v>5550.650389109569</v>
-      </c>
-      <c r="F176">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="C176" s="7">
+        <v>140926.16</v>
+      </c>
+      <c r="D176" s="8"/>
+      <c r="E176" s="7">
+        <v>320848.07666666666</v>
+      </c>
+      <c r="F176" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>11</v>
       </c>
       <c r="B177" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C177">
-        <v>2070.3333333333335</v>
+        <v>1607.5600000000002</v>
       </c>
       <c r="D177">
-        <v>2.7733318900802555</v>
+        <v>2.7666650902447016</v>
       </c>
       <c r="E177">
-        <v>5741.7214564294891</v>
+        <v>4447.5801324737731</v>
       </c>
       <c r="F177">
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>11</v>
       </c>
       <c r="B178" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C178">
-        <v>2183.8666666666668</v>
+        <v>1735.14</v>
       </c>
       <c r="D178">
-        <v>2.7966653921227143</v>
+        <v>2.7333331849172779</v>
       </c>
       <c r="E178">
-        <v>6107.5443276770584</v>
+        <v>4742.7157424773659</v>
       </c>
       <c r="F178">
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>11</v>
       </c>
       <c r="B179" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C179">
-        <v>2327.4300000000003</v>
+        <v>1813.3466666666666</v>
       </c>
       <c r="D179">
-        <v>2.8466745918511189</v>
+        <v>2.7366679224228307</v>
       </c>
       <c r="E179">
-        <v>6625.4358453120503</v>
+        <v>4962.5276548990314</v>
       </c>
       <c r="F179">
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C180">
-        <v>2494.2466666666664</v>
+        <v>1890.2266666666667</v>
       </c>
       <c r="D180">
-        <v>2.8666747379044466</v>
+        <v>2.7500001416616198</v>
       </c>
       <c r="E180">
-        <v>7150.1939094357058</v>
+        <v>5198.1236011059045</v>
       </c>
       <c r="F180">
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>11</v>
       </c>
       <c r="B181" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C181">
-        <v>2836.2033333333334</v>
+        <v>1994.2466666666667</v>
       </c>
       <c r="D181">
-        <v>2.8266674765391717</v>
+        <v>2.78333191269029</v>
       </c>
       <c r="E181">
-        <v>8017.0037191853207</v>
+        <v>5550.650389109569</v>
       </c>
       <c r="F181">
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>11</v>
       </c>
       <c r="B182" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C182">
-        <v>3341.0500000000006</v>
+        <v>2070.3333333333335</v>
       </c>
       <c r="D182">
-        <v>2.826666635393273</v>
+        <v>2.7733318900802555</v>
       </c>
       <c r="E182">
-        <v>9444.0345621806973</v>
+        <v>5741.7214564294891</v>
       </c>
       <c r="F182">
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C183">
-        <v>3688.9233333333336</v>
+        <v>2183.8666666666668</v>
       </c>
       <c r="D183">
-        <v>2.82333354031101</v>
+        <v>2.7966653921227143</v>
       </c>
       <c r="E183">
-        <v>10415.060974635893</v>
+        <v>6107.5443276770584</v>
       </c>
       <c r="F183">
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>11</v>
       </c>
       <c r="B184" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C184">
-        <v>4004.81</v>
+        <v>2327.4300000000003</v>
       </c>
       <c r="D184">
-        <v>2.8399999152458899</v>
+        <v>2.8466745918511189</v>
       </c>
       <c r="E184">
-        <v>11373.660060575892</v>
+        <v>6625.4358453120503</v>
       </c>
       <c r="F184">
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>11</v>
       </c>
       <c r="B185" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C185">
-        <v>4461.7833333333338</v>
+        <v>2494.2466666666664</v>
       </c>
       <c r="D185">
-        <v>2.8366659881853717</v>
+        <v>2.8666747379044466</v>
       </c>
       <c r="E185">
-        <v>12656.589028319024</v>
+        <v>7150.1939094357058</v>
       </c>
       <c r="F185">
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>11</v>
       </c>
       <c r="B186" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C186">
-        <v>5037.2700000000004</v>
+        <v>2836.2033333333334</v>
       </c>
       <c r="D186">
-        <v>2.8366666174383024</v>
+        <v>2.8266674765391717</v>
       </c>
       <c r="E186">
-        <v>14289.055652023439</v>
+        <v>8017.0037191853207</v>
       </c>
       <c r="F186">
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C187">
-        <v>5672.95</v>
+        <v>3341.0500000000006</v>
       </c>
       <c r="D187">
-        <v>2.7600008335006847</v>
+        <v>2.826666635393273</v>
       </c>
       <c r="E187">
-        <v>15657.346728407709</v>
+        <v>9444.0345621806973</v>
       </c>
       <c r="F187">
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C188">
-        <v>5974.1833333333334</v>
+        <v>3688.9233333333336</v>
       </c>
       <c r="D188">
-        <v>2.7366666065192304</v>
+        <v>2.82333354031101</v>
       </c>
       <c r="E188">
-        <v>16349.348029557077</v>
+        <v>10415.060974635893</v>
       </c>
       <c r="F188">
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>11</v>
       </c>
       <c r="B189" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C189">
-        <v>6307.2934499999965</v>
+        <v>4004.81</v>
       </c>
       <c r="D189">
-        <v>2.7566664138396657</v>
+        <v>2.8399999152458899</v>
       </c>
       <c r="E189">
-        <v>17387.104015845904</v>
+        <v>11373.660060575892</v>
       </c>
       <c r="F189">
         <v>44</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>11</v>
       </c>
       <c r="B190" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C190">
-        <v>7291.5956999999971</v>
+        <v>4461.7833333333338</v>
       </c>
       <c r="D190">
-        <v>2.723332423844615</v>
+        <v>2.8366659881853717</v>
       </c>
       <c r="E190">
-        <v>19857.438991375966</v>
+        <v>12656.589028319024</v>
       </c>
       <c r="F190">
         <v>44</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>11</v>
       </c>
       <c r="B191" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C191">
-        <v>8313.145985519297</v>
+        <v>5037.2700000000004</v>
       </c>
       <c r="D191">
-        <v>2.6899998813513446</v>
+        <v>2.8366666174383024</v>
       </c>
       <c r="E191">
-        <v>22362.361714703315</v>
+        <v>14289.055652023439</v>
       </c>
       <c r="F191">
         <v>44</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>11</v>
       </c>
       <c r="B192" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C192">
-        <v>9145.5601499999993</v>
+        <v>5672.95</v>
       </c>
       <c r="D192">
-        <v>2.6699988689174741</v>
+        <v>2.7600008335006847</v>
       </c>
       <c r="E192">
-        <v>24418.635256116722</v>
+        <v>15657.346728407709</v>
       </c>
       <c r="F192">
         <v>44</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>11</v>
       </c>
       <c r="B193" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C193">
-        <v>9774.0333333333347</v>
+        <v>5974.1833333333334</v>
       </c>
       <c r="D193">
-        <v>2.6533332984517926</v>
+        <v>2.7366666065192304</v>
       </c>
       <c r="E193">
-        <v>25933.768103511105</v>
+        <v>16349.348029557077</v>
       </c>
       <c r="F193">
         <v>44</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>11</v>
       </c>
       <c r="B194" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C194">
-        <v>10665.546666666667</v>
+        <v>6307.2934499999965</v>
       </c>
       <c r="D194">
-        <v>2.640000076351567</v>
+        <v>2.7566664138396657</v>
       </c>
       <c r="E194">
-        <v>28157.044014331201</v>
+        <v>17387.104015845904</v>
       </c>
       <c r="F194">
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>11</v>
       </c>
       <c r="B195" t="s">
-        <v>35</v>
-      </c>
-      <c r="C195" s="1">
-        <v>12511.243333333332</v>
-      </c>
-      <c r="D195" s="4">
-        <v>2.5633333333333335</v>
-      </c>
-      <c r="E195" s="2">
-        <v>32053.226666666666</v>
+        <v>30</v>
+      </c>
+      <c r="C195">
+        <v>7291.5956999999971</v>
+      </c>
+      <c r="D195">
+        <v>2.723332423844615</v>
+      </c>
+      <c r="E195">
+        <v>19857.438991375966</v>
       </c>
       <c r="F195">
         <v>44</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>11</v>
       </c>
       <c r="B196" t="s">
-        <v>36</v>
-      </c>
-      <c r="C196" s="2">
-        <v>14881.136666666665</v>
-      </c>
-      <c r="D196" s="4">
-        <v>2.5433333333333334</v>
-      </c>
-      <c r="E196" s="2">
-        <v>37849.986666666671</v>
+        <v>31</v>
+      </c>
+      <c r="C196">
+        <v>8313.145985519297</v>
+      </c>
+      <c r="D196">
+        <v>2.6899998813513446</v>
+      </c>
+      <c r="E196">
+        <v>22362.361714703315</v>
       </c>
       <c r="F196">
         <v>44</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>11</v>
       </c>
       <c r="B197" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C197">
-        <v>17856.789999999997</v>
+        <v>9145.5601499999993</v>
       </c>
       <c r="D197">
-        <v>2.56</v>
+        <v>2.6699988689174741</v>
       </c>
       <c r="E197">
-        <v>45713.383333333331</v>
+        <v>24418.635256116722</v>
       </c>
       <c r="F197">
         <v>44</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C198">
-        <v>21698.27</v>
+        <v>9774.0333333333347</v>
       </c>
       <c r="D198">
-        <v>2.5733333333333333</v>
+        <v>2.6533332984517926</v>
       </c>
       <c r="E198">
-        <v>55843.573333333334</v>
+        <v>25933.768103511105</v>
       </c>
       <c r="F198">
         <v>44</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>11</v>
       </c>
       <c r="B199" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C199">
-        <v>27061.923333333336</v>
+        <v>10665.546666666667</v>
+      </c>
+      <c r="D199">
+        <v>2.640000076351567</v>
       </c>
       <c r="E199">
-        <v>68027.776666666672</v>
+        <v>28157.044014331201</v>
       </c>
       <c r="F199">
         <v>44</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>11</v>
       </c>
       <c r="B200" t="s">
-        <v>40</v>
-      </c>
-      <c r="C200">
-        <v>29407.166666666668</v>
-      </c>
-      <c r="E200">
-        <v>82498.666666666657</v>
+        <v>35</v>
+      </c>
+      <c r="C200" s="1">
+        <v>12511.243333333332</v>
+      </c>
+      <c r="D200" s="4">
+        <v>2.5633333333333335</v>
+      </c>
+      <c r="E200" s="2">
+        <v>32053.226666666666</v>
       </c>
       <c r="F200">
         <v>44</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>11</v>
       </c>
       <c r="B201" t="s">
-        <v>41</v>
-      </c>
-      <c r="C201">
-        <v>43556.566666666673</v>
-      </c>
-      <c r="E201">
-        <v>108270.79666666668</v>
+        <v>36</v>
+      </c>
+      <c r="C201" s="2">
+        <v>14881.136666666665</v>
+      </c>
+      <c r="D201" s="4">
+        <v>2.5433333333333334</v>
+      </c>
+      <c r="E201" s="2">
+        <v>37849.986666666671</v>
       </c>
       <c r="F201">
         <v>44</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>11</v>
       </c>
       <c r="B202" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C202">
-        <v>65121.743333333339</v>
+        <v>17856.789999999997</v>
+      </c>
+      <c r="D202">
+        <v>2.56</v>
       </c>
       <c r="E202">
-        <v>155201.95666666667</v>
+        <v>45713.383333333331</v>
       </c>
       <c r="F202">
         <v>44</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>11</v>
       </c>
       <c r="B203" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C203">
-        <v>106678.96333333333</v>
-      </c>
-      <c r="E203" s="3">
-        <v>258084.29</v>
+        <v>21698.27</v>
+      </c>
+      <c r="D203">
+        <v>2.5733333333333333</v>
+      </c>
+      <c r="E203">
+        <v>55843.573333333334</v>
       </c>
       <c r="F203">
         <v>44</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>11</v>
       </c>
       <c r="B204" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C204">
-        <v>126404.24333333333</v>
-      </c>
-      <c r="E204" s="3">
-        <v>316858.0566666667</v>
+        <v>27061.923333333336</v>
+      </c>
+      <c r="E204">
+        <v>68027.776666666672</v>
       </c>
       <c r="F204">
         <v>44</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>48</v>
-      </c>
-      <c r="C205" s="6">
-        <f>C204*1.088</f>
-        <v>137527.81674666668</v>
-      </c>
-      <c r="D205" s="7"/>
-      <c r="E205" s="6">
-        <f>E204*1.098</f>
-        <v>347910.14622000005</v>
+        <v>40</v>
+      </c>
+      <c r="C205">
+        <v>29407.166666666668</v>
+      </c>
+      <c r="E205">
+        <v>82498.666666666657</v>
       </c>
       <c r="F205">
         <v>44</v>
       </c>
     </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>11</v>
+      </c>
+      <c r="B206" t="s">
+        <v>41</v>
+      </c>
+      <c r="C206">
+        <v>43556.566666666673</v>
+      </c>
+      <c r="E206">
+        <v>108270.79666666668</v>
+      </c>
+      <c r="F206">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>11</v>
+      </c>
+      <c r="B207" t="s">
+        <v>42</v>
+      </c>
+      <c r="C207">
+        <v>65121.743333333339</v>
+      </c>
+      <c r="E207">
+        <v>155201.95666666667</v>
+      </c>
+      <c r="F207">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208" t="s">
+        <v>46</v>
+      </c>
+      <c r="C208">
+        <v>106678.96333333333</v>
+      </c>
+      <c r="E208" s="3">
+        <v>258084.29</v>
+      </c>
+      <c r="F208">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>11</v>
+      </c>
+      <c r="B209" t="s">
+        <v>47</v>
+      </c>
+      <c r="C209">
+        <v>126404.24333333333</v>
+      </c>
+      <c r="E209" s="3">
+        <v>316858.0566666667</v>
+      </c>
+      <c r="F209">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>11</v>
+      </c>
+      <c r="B210" t="s">
+        <v>48</v>
+      </c>
+      <c r="C210" s="7">
+        <v>139523.1033333333</v>
+      </c>
+      <c r="D210" s="8"/>
+      <c r="E210" s="7">
+        <v>353498.32666666666</v>
+      </c>
+      <c r="F210">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>11</v>
+      </c>
+      <c r="B211" t="s">
+        <v>49</v>
+      </c>
+      <c r="C211">
+        <v>146784.51666666663</v>
+      </c>
+      <c r="E211">
+        <v>379207.05666666664</v>
+      </c>
+      <c r="F211">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F202">
-    <sortCondition ref="F2:F202"/>
-    <sortCondition ref="B2:B202"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F207">
+    <sortCondition ref="F2:F207"/>
+    <sortCondition ref="B2:B207"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1 B206:B1048576" numberStoredAsText="1"/>
+    <ignoredError sqref="B1 B212:B1048576" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4615,9 +4722,9 @@
       <selection activeCell="AM2" sqref="AM2:AP2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -4751,7 +4858,7 @@
         <v>187172.43</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="D2" s="5">
         <f>AVERAGE(D1:F1)</f>
         <v>92024.92333333334</v>
